--- a/src/main/text/paragraphs/Параграфы, БДК, Том 10,14.xlsx
+++ b/src/main/text/paragraphs/Параграфы, БДК, Том 10,14.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7227" uniqueCount="2315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7184" uniqueCount="2321">
   <si>
     <t>Состояние «Фокуса Пристального Внимания» моделирует «геометрию» Пространства-Времени. В одной и той же «многомерной точке» Пространства-Времени потенциально представлено всё множество Стерео-Типов каждой из наших Стерео-Форм. Смещение УФС – нефизическое явление. Кратко об эффекте «расширения» Вселенной</t>
   </si>
@@ -5472,9 +5472,6 @@
     <t>3.9.1.3</t>
   </si>
   <si>
-    <t>3.0003</t>
-  </si>
-  <si>
     <t>3.9.1.4</t>
   </si>
   <si>
@@ -5484,9 +5481,6 @@
     <t>3.9.1.5</t>
   </si>
   <si>
-    <t>3.0005</t>
-  </si>
-  <si>
     <t>3.9.1.6</t>
   </si>
   <si>
@@ -5496,126 +5490,27 @@
     <t>3.9.1.7</t>
   </si>
   <si>
-    <t>3.0007</t>
-  </si>
-  <si>
     <t>3.9.1.8</t>
   </si>
   <si>
-    <t>3.0008</t>
-  </si>
-  <si>
-    <t>3.9.1.9</t>
-  </si>
-  <si>
-    <t>3.0009</t>
-  </si>
-  <si>
-    <t>3.9.1.10</t>
-  </si>
-  <si>
-    <t>3.0010</t>
-  </si>
-  <si>
-    <t>3.9.1.11</t>
-  </si>
-  <si>
-    <t>3.0011</t>
-  </si>
-  <si>
-    <t>3.9.1.12</t>
-  </si>
-  <si>
-    <t>3.0012</t>
-  </si>
-  <si>
-    <t>3.9.1.13</t>
-  </si>
-  <si>
-    <t>3.0013</t>
-  </si>
-  <si>
-    <t>3.9.1.14</t>
-  </si>
-  <si>
-    <t>3.0014</t>
-  </si>
-  <si>
-    <t>3.9.1.15</t>
-  </si>
-  <si>
     <t>3.0015</t>
   </si>
   <si>
-    <t>3.9.1.16</t>
-  </si>
-  <si>
-    <t>3.0016</t>
-  </si>
-  <si>
-    <t>3.9.1.17</t>
-  </si>
-  <si>
     <t>3.0017</t>
   </si>
   <si>
-    <t>3.9.1.18</t>
-  </si>
-  <si>
-    <t>3.0018</t>
-  </si>
-  <si>
-    <t>3.9.1.19</t>
-  </si>
-  <si>
-    <t>3.0019</t>
-  </si>
-  <si>
-    <t>3.9.1.20</t>
-  </si>
-  <si>
-    <t>3.0020</t>
-  </si>
-  <si>
-    <t>3.9.1.21</t>
-  </si>
-  <si>
     <t>3.0021</t>
   </si>
   <si>
-    <t>3.9.1.22</t>
-  </si>
-  <si>
-    <t>3.0022</t>
-  </si>
-  <si>
-    <t>3.9.1.23</t>
-  </si>
-  <si>
-    <t>3.0023</t>
-  </si>
-  <si>
-    <t>3.9.1.24</t>
-  </si>
-  <si>
     <t>3.0024</t>
   </si>
   <si>
-    <t>3.9.1.25</t>
-  </si>
-  <si>
     <t>3.0025</t>
   </si>
   <si>
-    <t>3.9.1.26</t>
-  </si>
-  <si>
     <t>3.0026</t>
   </si>
   <si>
-    <t>3.9.1.27</t>
-  </si>
-  <si>
     <t>3.0027</t>
   </si>
   <si>
@@ -8161,6 +8056,129 @@
   </si>
   <si>
     <t>3.0451</t>
+  </si>
+  <si>
+    <t>Причина различий в индивидуальных ФД, в их качественности. Убедительная статичная картина не позволяет воспринимать хотя бы несколько сценариев, иначе мы бы растерялись, кто мы. Это возможно или в медитации, или при ллууввумической амплиативности</t>
+  </si>
+  <si>
+    <t>Что же такое окружающая действительность. Режиссерами являются не ФТв ДНК, а свилгсонные Творцы в мусорной части ДНК, порождающие РНК. Генные Формы Самосознаний структурированы множеством разнодоминантных ФТв</t>
+  </si>
+  <si>
+    <t>Свилгсонные ФТв кодируют РНК посредством особых белков с ФТв интерпретаторами. На каждый ген приходится около 150-200 ФТв-регуляторов</t>
+  </si>
+  <si>
+    <t>Осознанность - синтез и накопление Опыта при взмд Форм разных типов бирвуляртностей. Пример неврологического механизма восприятия. Интерпретация ощущений происходит у био-Творцов ствола мозга</t>
+  </si>
+  <si>
+    <t>Более качественную осознанность обеспечивают ФТв коры мозга. Нереализованная интуитивная осознанность с примером Ориса. Распаковка из «коллективного бессознательного» и «коллективного Подсознания». Осознанность - это контролируемое вами отражение вашей ФД здесь и сейчас. Повышение осознанности - это и включение всех органов чувств, и интуитивное восприятие своих партикулярных Формо-Типов</t>
+  </si>
+  <si>
+    <t>ФД возможна благодаря скр. системе. Наше восприятие перфокусировок животных. Мы не можем понять этот процесс для неодушевлённых физических Формо-систем, скррууллерртная система как бы отсутствует, но у них также есть свои типы бирвуляртностей</t>
+  </si>
+  <si>
+    <t>Имперсептность между всеми Прото-Формами только кажущаяся, персоналистические ПВК всех Прото-Форм образуют ФД Планетарной ТОО-УУ-Сущности. Осознанность можно воспринять только в одном общем типе бирвуляртности</t>
+  </si>
+  <si>
+    <t>Глава 2. Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</t>
+  </si>
+  <si>
+    <t>3.9.2.1</t>
+  </si>
+  <si>
+    <t>3.9.2.2</t>
+  </si>
+  <si>
+    <t>3.9.2.3</t>
+  </si>
+  <si>
+    <t>3.9.2.4</t>
+  </si>
+  <si>
+    <t>3.9.2.5</t>
+  </si>
+  <si>
+    <t>3.9.2.6</t>
+  </si>
+  <si>
+    <t>3.9.2.7</t>
+  </si>
+  <si>
+    <t>Межпротоформная ФД разных Форм Самосознаний образуется по степени коварллертности взаимосвязей между Формо-Творцами. Конгениальные "личностные" Интерпретации и партикулярные Формо-Типы</t>
+  </si>
+  <si>
+    <t>Определение Стерео-Формы. Диффузгентное состояние НУУ-ВВУ-Формо-Типов. Идентичность понятий Стерео-Форма и ЛЛУУ-ВВУ-Форма как одной ТОО-УУ-Сущности ККР Человечества. Нет смысла рассматривать все прочие варианты ФД, так как они только запутают нас</t>
+  </si>
+  <si>
+    <t>Структура механизма ВЭН и ПЭС проецирует Ваш Интерес в соответствующую часть Пространства-Времени. Образование субъективных Реальностей и персоналистических Миров. Включение партикулярных Формо-Типов в один "сценарий развития" и образование творческих коллективов на основе общего Интереса</t>
+  </si>
+  <si>
+    <t>В окружающем вас Мире может отсутствовать всё что угодно, кроме ВАС. Вы являетесь теми, кем себя создаёте в отношениях. Смысл фразы "относиться к другим людям, как к самим себе". Реакции других надо научиться воспринимать как помощь. Фиксация на эго-тенденциях</t>
+  </si>
+  <si>
+    <t>Способность к разотождествлению появляется с усвоением ИИ Знания. Физическое тело теряет исключительное значение, и вы становитесь способны к тождественному восприятию других Форм. Реализация низкокачественных реакций перекладывается на ваши партикулярные Формо-Типы. Позитивное восприятие любой проблемы как возможности для духовного роста. Состояние глубокого Понимания кармической неразделимости и творческой общности с каждым</t>
+  </si>
+  <si>
+    <t>Механизм формирования отдельных личностей. 386 дооллсово-квантовых СВУУЛЛ-ВВУ-Сущностей формируют деплиативную часть ФД. Увеличение энергоёмкости СВУУЛЛ-ВВУ приводит к возможности материализации в нашем диапазоне</t>
+  </si>
+  <si>
+    <t>Наша ФД также структурирована более качественными усстуккулярными и ахсуввроллентными Уровнями проявления. Мы ежемгновенно осуществляем синтез 300-500 дооллсовых Форм Самосознаний. При повышении качественности дооллсовые Формы преобразуются в длугллеммные и волновые</t>
+  </si>
+  <si>
+    <t>Глава 3. Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</t>
+  </si>
+  <si>
+    <t>3.9.3.1</t>
+  </si>
+  <si>
+    <t>3.9.3.2</t>
+  </si>
+  <si>
+    <t>3.9.3.3</t>
+  </si>
+  <si>
+    <t>3.9.3.4</t>
+  </si>
+  <si>
+    <t>В квантовых Формо-системах не проявлены низко- и высоковибрационные СФУУРММ-Формы (наши мысли и чувства). ФФЛУАРРС-фактор и показатель скррууллерртности имеют противоположные тенденции. В деплиативных Уровнях 3-4 мерности межкачественный синтез ещё слабый, характерная повышенная инерционность</t>
+  </si>
+  <si>
+    <t>Наша субъективная Реальность отнесена к ИРККУЛЛ-диапазону. Однако Фокусная Динамика наших Форм активна до 4.5 мерности. Наши Представления смешаны из человеческих и протоформных</t>
+  </si>
+  <si>
+    <t>300-400 дооллсовых личностей - это минимальный базис ИРККУЛЛ-реальности. В более качественных реальностях более совершенные био-аналоги НУУ-ВВУ, обладающие большим набором аминокислот, сверхспособностями. Негативные Образы существуют из-за неполного внутри-Качественного Синтеза</t>
+  </si>
+  <si>
+    <t>Депрессии - это признаки дооллсового режима Существования. С повышением качественности дооллсовые режимы проявления теряются в Конфигурации</t>
+  </si>
+  <si>
+    <t>Глава 4. Конкретизация окружающей нас субъективной Реальности осуществляется СФУУРММ-Формами на уровне элементарных частиц</t>
+  </si>
+  <si>
+    <t>3.9.4.1</t>
+  </si>
+  <si>
+    <t>3.9.4.2</t>
+  </si>
+  <si>
+    <t>3.9.4.3</t>
+  </si>
+  <si>
+    <t>3.9.4.4</t>
+  </si>
+  <si>
+    <t>3.9.4.5</t>
+  </si>
+  <si>
+    <t>3.9.4.6</t>
+  </si>
+  <si>
+    <t>3.9.4.7</t>
+  </si>
+  <si>
+    <t>3.9.4.8</t>
+  </si>
+  <si>
+    <t>Био-Творцы и гармоничная организация биологического существования так или иначе организуются бозонными и фермионными Полями-Сознаниями. Разницы между Формо-Творцами и био-Творцами не существует. Наши СФУУРММ-Формы вызывают реакцию Форм Самосознаний элементарных частиц, молекул (галлюцинации из-за биохимических реакций, влияние на ход физических экспериментов)</t>
   </si>
 </sst>
 </file>
@@ -8234,7 +8252,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8256,6 +8274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8300,7 +8324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8319,6 +8343,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -8601,8 +8627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L912"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="D460" sqref="D460"/>
+    <sheetView tabSelected="1" topLeftCell="A465" workbookViewId="0">
+      <selection activeCell="K485" sqref="K485"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8612,8 +8638,8 @@
     <col min="3" max="3" width="3.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="2.28515625" style="7" customWidth="1"/>
     <col min="5" max="5" width="3" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="7" customWidth="1"/>
     <col min="8" max="8" width="2.42578125" style="7" customWidth="1"/>
     <col min="9" max="9" width="1.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" style="4" customWidth="1"/>
@@ -27764,10 +27790,10 @@
         <v>1416</v>
       </c>
       <c r="K456" s="4" t="s">
-        <v>1414</v>
+        <v>2280</v>
       </c>
       <c r="L456" s="8" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="457" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -27806,10 +27832,10 @@
         <v>1417</v>
       </c>
       <c r="K457" s="4" t="s">
-        <v>1414</v>
+        <v>2281</v>
       </c>
       <c r="L457" s="8" t="s">
-        <v>1418</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="458" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -27845,13 +27871,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J458" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="K458" s="4" t="s">
-        <v>1414</v>
+        <v>2282</v>
       </c>
       <c r="L458" s="8" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="459" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -27887,13 +27913,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J459" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="K459" s="4" t="s">
-        <v>1414</v>
+        <v>2283</v>
       </c>
       <c r="L459" s="8" t="s">
-        <v>1422</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="460" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -27929,13 +27955,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J460" s="4" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="K460" s="4" t="s">
-        <v>1414</v>
+        <v>2284</v>
       </c>
       <c r="L460" s="8" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="461" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -27971,13 +27997,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J461" s="4" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="K461" s="4" t="s">
-        <v>1414</v>
+        <v>2285</v>
       </c>
       <c r="L461" s="8" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="462" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28013,13 +28039,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J462" s="4" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="K462" s="4" t="s">
-        <v>1414</v>
+        <v>2286</v>
       </c>
       <c r="L462" s="8" t="s">
-        <v>1428</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="463" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28040,28 +28066,24 @@
         <v>1411</v>
       </c>
       <c r="F463" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G463" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>2287</v>
       </c>
       <c r="H463" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v xml:space="preserve">Основы / Раздел IХ / </v>
       </c>
       <c r="I463" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Глава 2Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</v>
       </c>
       <c r="J463" s="4" t="s">
-        <v>1429</v>
+        <v>2288</v>
       </c>
       <c r="K463" s="4" t="s">
-        <v>1414</v>
+        <v>2295</v>
       </c>
       <c r="L463" s="8" t="s">
-        <v>1430</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="464" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28082,28 +28104,24 @@
         <v>1411</v>
       </c>
       <c r="F464" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G464" s="7" t="str">
-        <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>2287</v>
       </c>
       <c r="H464" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v xml:space="preserve">Основы / Раздел IХ / </v>
       </c>
       <c r="I464" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Глава 2Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</v>
       </c>
       <c r="J464" s="4" t="s">
-        <v>1431</v>
+        <v>2289</v>
       </c>
       <c r="K464" s="4" t="s">
-        <v>1414</v>
+        <v>2296</v>
       </c>
       <c r="L464" s="8" t="s">
-        <v>1432</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="465" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28124,28 +28142,28 @@
         <v>1411</v>
       </c>
       <c r="F465" s="4" t="s">
-        <v>1412</v>
+        <v>2287</v>
       </c>
       <c r="G465" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 2</v>
       </c>
       <c r="H465" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 2</v>
       </c>
       <c r="I465" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</v>
       </c>
       <c r="J465" s="4" t="s">
-        <v>1433</v>
+        <v>2290</v>
       </c>
       <c r="K465" s="4" t="s">
-        <v>1414</v>
+        <v>2297</v>
       </c>
       <c r="L465" s="8" t="s">
-        <v>1434</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="466" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28166,28 +28184,28 @@
         <v>1411</v>
       </c>
       <c r="F466" s="4" t="s">
-        <v>1412</v>
+        <v>2287</v>
       </c>
       <c r="G466" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 2</v>
       </c>
       <c r="H466" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 2</v>
       </c>
       <c r="I466" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</v>
       </c>
       <c r="J466" s="4" t="s">
-        <v>1435</v>
+        <v>2291</v>
       </c>
       <c r="K466" s="4" t="s">
-        <v>1414</v>
+        <v>2298</v>
       </c>
       <c r="L466" s="8" t="s">
-        <v>1436</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="467" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28208,28 +28226,28 @@
         <v>1411</v>
       </c>
       <c r="F467" s="4" t="s">
-        <v>1412</v>
+        <v>2287</v>
       </c>
       <c r="G467" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 2</v>
       </c>
       <c r="H467" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 2</v>
       </c>
       <c r="I467" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</v>
       </c>
       <c r="J467" s="4" t="s">
-        <v>1437</v>
+        <v>2292</v>
       </c>
       <c r="K467" s="4" t="s">
-        <v>1414</v>
+        <v>2299</v>
       </c>
       <c r="L467" s="8" t="s">
-        <v>1438</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="468" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28250,28 +28268,28 @@
         <v>1411</v>
       </c>
       <c r="F468" s="4" t="s">
-        <v>1412</v>
+        <v>2287</v>
       </c>
       <c r="G468" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 2</v>
       </c>
       <c r="H468" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 2</v>
       </c>
       <c r="I468" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</v>
       </c>
       <c r="J468" s="4" t="s">
-        <v>1439</v>
+        <v>2293</v>
       </c>
       <c r="K468" s="4" t="s">
-        <v>1414</v>
+        <v>2300</v>
       </c>
       <c r="L468" s="8" t="s">
-        <v>1440</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="469" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28292,28 +28310,28 @@
         <v>1411</v>
       </c>
       <c r="F469" s="4" t="s">
-        <v>1412</v>
+        <v>2287</v>
       </c>
       <c r="G469" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 2</v>
       </c>
       <c r="H469" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 2</v>
       </c>
       <c r="I469" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принцип осуществления Механизма эксгиберации волновых аналогов НУУ-ВВУ-Формо-Типов из ф-Конфигураций дооллсовых и флаксовых Форм Самосознаний</v>
       </c>
       <c r="J469" s="4" t="s">
-        <v>1441</v>
+        <v>2294</v>
       </c>
       <c r="K469" s="4" t="s">
-        <v>1414</v>
+        <v>2301</v>
       </c>
       <c r="L469" s="8" t="s">
-        <v>1442</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="470" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28334,28 +28352,28 @@
         <v>1411</v>
       </c>
       <c r="F470" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G470" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H470" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I470" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J470" s="4" t="s">
-        <v>1443</v>
+        <v>2303</v>
       </c>
       <c r="K470" s="4" t="s">
-        <v>1414</v>
+        <v>2307</v>
       </c>
       <c r="L470" s="8" t="s">
-        <v>1444</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="471" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28376,28 +28394,28 @@
         <v>1411</v>
       </c>
       <c r="F471" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G471" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H471" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I471" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J471" s="4" t="s">
-        <v>1445</v>
+        <v>2304</v>
       </c>
       <c r="K471" s="4" t="s">
-        <v>1414</v>
+        <v>2308</v>
       </c>
       <c r="L471" s="8" t="s">
-        <v>1446</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="472" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28418,28 +28436,28 @@
         <v>1411</v>
       </c>
       <c r="F472" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G472" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H472" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I472" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J472" s="4" t="s">
-        <v>1447</v>
+        <v>2305</v>
       </c>
       <c r="K472" s="4" t="s">
-        <v>1414</v>
+        <v>2309</v>
       </c>
       <c r="L472" s="8" t="s">
-        <v>1448</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="473" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28460,70 +28478,70 @@
         <v>1411</v>
       </c>
       <c r="F473" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G473" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H473" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I473" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J473" s="4" t="s">
-        <v>1449</v>
+        <v>2306</v>
       </c>
       <c r="K473" s="4" t="s">
-        <v>1414</v>
+        <v>2310</v>
       </c>
       <c r="L473" s="8" t="s">
-        <v>1450</v>
-      </c>
-    </row>
-    <row r="474" spans="1:12" ht="15" x14ac:dyDescent="0.2">
-      <c r="A474" s="4" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="A474" s="12" t="s">
         <v>1408</v>
       </c>
-      <c r="B474" s="11" t="s">
+      <c r="B474" s="12" t="s">
         <v>1409</v>
       </c>
-      <c r="C474" s="4" t="s">
+      <c r="C474" s="12" t="s">
         <v>1410</v>
       </c>
-      <c r="D474" s="7" t="str">
+      <c r="D474" s="12" t="str">
         <f t="shared" si="32"/>
         <v>Основы / Раздел IХ</v>
       </c>
-      <c r="E474" s="4" t="s">
+      <c r="E474" s="12" t="s">
         <v>1411</v>
       </c>
-      <c r="F474" s="4" t="s">
-        <v>1412</v>
-      </c>
-      <c r="G474" s="7" t="str">
+      <c r="F474" s="12" t="s">
+        <v>2311</v>
+      </c>
+      <c r="G474" s="12" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
-      </c>
-      <c r="H474" s="7" t="str">
+        <v>Глава 4</v>
+      </c>
+      <c r="H474" s="12" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
-      </c>
-      <c r="I474" s="7" t="str">
+        <v>Основы / Раздел IХ / Глава 4</v>
+      </c>
+      <c r="I474" s="12" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
-      </c>
-      <c r="J474" s="4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="K474" s="4" t="s">
-        <v>1414</v>
-      </c>
-      <c r="L474" s="8" t="s">
-        <v>1452</v>
+        <v>Конкретизация окружающей нас субъективной Реальности осуществляется СФУУРММ-Формами на уровне элементарных частиц</v>
+      </c>
+      <c r="J474" s="12" t="s">
+        <v>2312</v>
+      </c>
+      <c r="K474" s="12" t="s">
+        <v>2320</v>
+      </c>
+      <c r="L474" s="13" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="475" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28544,28 +28562,25 @@
         <v>1411</v>
       </c>
       <c r="F475" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G475" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H475" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I475" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J475" s="4" t="s">
-        <v>1453</v>
-      </c>
-      <c r="K475" s="4" t="s">
-        <v>1414</v>
+        <v>2313</v>
       </c>
       <c r="L475" s="8" t="s">
-        <v>1454</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="476" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28586,28 +28601,25 @@
         <v>1411</v>
       </c>
       <c r="F476" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G476" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H476" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I476" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J476" s="4" t="s">
-        <v>1455</v>
-      </c>
-      <c r="K476" s="4" t="s">
-        <v>1414</v>
+        <v>2314</v>
       </c>
       <c r="L476" s="8" t="s">
-        <v>1456</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="477" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28628,28 +28640,25 @@
         <v>1411</v>
       </c>
       <c r="F477" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G477" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H477" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I477" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J477" s="4" t="s">
-        <v>1457</v>
-      </c>
-      <c r="K477" s="4" t="s">
-        <v>1414</v>
+        <v>2315</v>
       </c>
       <c r="L477" s="8" t="s">
-        <v>1458</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="478" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28670,28 +28679,25 @@
         <v>1411</v>
       </c>
       <c r="F478" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G478" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H478" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I478" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J478" s="4" t="s">
-        <v>1459</v>
-      </c>
-      <c r="K478" s="4" t="s">
-        <v>1414</v>
+        <v>2316</v>
       </c>
       <c r="L478" s="8" t="s">
-        <v>1460</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="479" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28712,28 +28718,25 @@
         <v>1411</v>
       </c>
       <c r="F479" s="4" t="s">
-        <v>1412</v>
+        <v>2302</v>
       </c>
       <c r="G479" s="7" t="str">
         <f t="shared" si="33"/>
-        <v>Глава 1</v>
+        <v>Глава 3</v>
       </c>
       <c r="H479" s="7" t="str">
         <f t="shared" si="34"/>
-        <v>Основы / Раздел IХ / Глава 1</v>
+        <v>Основы / Раздел IХ / Глава 3</v>
       </c>
       <c r="I479" s="7" t="str">
         <f t="shared" si="35"/>
-        <v>Множество персоналистических Миров и осознанность Восприятия</v>
+        <v>Принципы эксгиберации разно-Качественных СФУУРММ-Форм в 3-4-мерных Формо-системах Миров</v>
       </c>
       <c r="J479" s="4" t="s">
-        <v>1461</v>
-      </c>
-      <c r="K479" s="4" t="s">
-        <v>1414</v>
+        <v>2317</v>
       </c>
       <c r="L479" s="8" t="s">
-        <v>1462</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="480" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28769,13 +28772,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J480" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="K480" s="4" t="s">
-        <v>1414</v>
+        <v>2318</v>
       </c>
       <c r="L480" s="8" t="s">
-        <v>1464</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="481" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28811,13 +28811,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J481" s="4" t="s">
-        <v>1465</v>
-      </c>
-      <c r="K481" s="4" t="s">
-        <v>1414</v>
+        <v>2319</v>
       </c>
       <c r="L481" s="8" t="s">
-        <v>1466</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="482" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28853,13 +28850,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J482" s="4" t="s">
-        <v>1467</v>
-      </c>
-      <c r="K482" s="4" t="s">
-        <v>1414</v>
+        <v>1432</v>
       </c>
       <c r="L482" s="8" t="s">
-        <v>1468</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="483" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28895,13 +28889,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J483" s="4" t="s">
-        <v>1469</v>
-      </c>
-      <c r="K483" s="4" t="s">
-        <v>1414</v>
+        <v>1434</v>
       </c>
       <c r="L483" s="8" t="s">
-        <v>1470</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="484" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28937,13 +28928,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J484" s="4" t="s">
-        <v>1471</v>
-      </c>
-      <c r="K484" s="4" t="s">
-        <v>1414</v>
+        <v>1436</v>
       </c>
       <c r="L484" s="8" t="s">
-        <v>1472</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="485" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -28979,13 +28967,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J485" s="4" t="s">
-        <v>1473</v>
-      </c>
-      <c r="K485" s="4" t="s">
-        <v>1414</v>
+        <v>1438</v>
       </c>
       <c r="L485" s="8" t="s">
-        <v>1474</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="486" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29021,13 +29006,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J486" s="4" t="s">
-        <v>1475</v>
-      </c>
-      <c r="K486" s="4" t="s">
-        <v>1414</v>
+        <v>1440</v>
       </c>
       <c r="L486" s="8" t="s">
-        <v>1476</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="487" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29063,13 +29045,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J487" s="4" t="s">
-        <v>1477</v>
-      </c>
-      <c r="K487" s="4" t="s">
-        <v>1414</v>
+        <v>1442</v>
       </c>
       <c r="L487" s="8" t="s">
-        <v>1478</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="488" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29105,13 +29084,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J488" s="4" t="s">
-        <v>1479</v>
-      </c>
-      <c r="K488" s="4" t="s">
-        <v>1414</v>
+        <v>1444</v>
       </c>
       <c r="L488" s="8" t="s">
-        <v>1480</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="489" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29147,13 +29123,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J489" s="4" t="s">
-        <v>1481</v>
-      </c>
-      <c r="K489" s="4" t="s">
-        <v>1414</v>
+        <v>1446</v>
       </c>
       <c r="L489" s="8" t="s">
-        <v>1482</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="490" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29189,13 +29162,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J490" s="4" t="s">
-        <v>1483</v>
-      </c>
-      <c r="K490" s="4" t="s">
-        <v>1414</v>
+        <v>1448</v>
       </c>
       <c r="L490" s="8" t="s">
-        <v>1484</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="491" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29231,13 +29201,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J491" s="4" t="s">
-        <v>1485</v>
-      </c>
-      <c r="K491" s="4" t="s">
-        <v>1414</v>
+        <v>1450</v>
       </c>
       <c r="L491" s="8" t="s">
-        <v>1486</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="492" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29273,13 +29240,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J492" s="4" t="s">
-        <v>1487</v>
-      </c>
-      <c r="K492" s="4" t="s">
-        <v>1414</v>
+        <v>1452</v>
       </c>
       <c r="L492" s="8" t="s">
-        <v>1488</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="493" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29315,13 +29279,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J493" s="4" t="s">
-        <v>1489</v>
-      </c>
-      <c r="K493" s="4" t="s">
-        <v>1414</v>
+        <v>1454</v>
       </c>
       <c r="L493" s="8" t="s">
-        <v>1490</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="494" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29357,13 +29318,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J494" s="4" t="s">
-        <v>1491</v>
-      </c>
-      <c r="K494" s="4" t="s">
-        <v>1414</v>
+        <v>1456</v>
       </c>
       <c r="L494" s="8" t="s">
-        <v>1492</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="495" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29399,13 +29357,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J495" s="4" t="s">
-        <v>1493</v>
-      </c>
-      <c r="K495" s="4" t="s">
-        <v>1414</v>
+        <v>1458</v>
       </c>
       <c r="L495" s="8" t="s">
-        <v>1494</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="496" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29441,13 +29396,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J496" s="4" t="s">
-        <v>1495</v>
-      </c>
-      <c r="K496" s="4" t="s">
-        <v>1414</v>
+        <v>1460</v>
       </c>
       <c r="L496" s="8" t="s">
-        <v>1496</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="497" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29483,13 +29435,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J497" s="4" t="s">
-        <v>1497</v>
-      </c>
-      <c r="K497" s="4" t="s">
-        <v>1414</v>
+        <v>1462</v>
       </c>
       <c r="L497" s="8" t="s">
-        <v>1498</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="498" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29525,13 +29474,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J498" s="4" t="s">
-        <v>1499</v>
-      </c>
-      <c r="K498" s="4" t="s">
-        <v>1414</v>
+        <v>1464</v>
       </c>
       <c r="L498" s="8" t="s">
-        <v>1500</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="499" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29567,13 +29513,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J499" s="4" t="s">
-        <v>1501</v>
-      </c>
-      <c r="K499" s="4" t="s">
-        <v>1414</v>
+        <v>1466</v>
       </c>
       <c r="L499" s="8" t="s">
-        <v>1502</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="500" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29609,13 +29552,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J500" s="4" t="s">
-        <v>1503</v>
-      </c>
-      <c r="K500" s="4" t="s">
-        <v>1414</v>
+        <v>1468</v>
       </c>
       <c r="L500" s="8" t="s">
-        <v>1504</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="501" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29651,13 +29591,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J501" s="4" t="s">
-        <v>1505</v>
-      </c>
-      <c r="K501" s="4" t="s">
-        <v>1414</v>
+        <v>1470</v>
       </c>
       <c r="L501" s="8" t="s">
-        <v>1506</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="502" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29693,13 +29630,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J502" s="4" t="s">
-        <v>1507</v>
-      </c>
-      <c r="K502" s="4" t="s">
-        <v>1414</v>
+        <v>1472</v>
       </c>
       <c r="L502" s="8" t="s">
-        <v>1508</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="503" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29735,13 +29669,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J503" s="4" t="s">
-        <v>1509</v>
-      </c>
-      <c r="K503" s="4" t="s">
-        <v>1414</v>
+        <v>1474</v>
       </c>
       <c r="L503" s="8" t="s">
-        <v>1510</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="504" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29777,13 +29708,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J504" s="4" t="s">
-        <v>1511</v>
-      </c>
-      <c r="K504" s="4" t="s">
-        <v>1414</v>
+        <v>1476</v>
       </c>
       <c r="L504" s="8" t="s">
-        <v>1512</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="505" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29819,13 +29747,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J505" s="4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="K505" s="4" t="s">
-        <v>1414</v>
+        <v>1478</v>
       </c>
       <c r="L505" s="8" t="s">
-        <v>1514</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="506" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29861,13 +29786,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J506" s="4" t="s">
-        <v>1515</v>
-      </c>
-      <c r="K506" s="4" t="s">
-        <v>1414</v>
+        <v>1480</v>
       </c>
       <c r="L506" s="8" t="s">
-        <v>1516</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="507" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29903,13 +29825,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J507" s="4" t="s">
-        <v>1517</v>
-      </c>
-      <c r="K507" s="4" t="s">
-        <v>1414</v>
+        <v>1482</v>
       </c>
       <c r="L507" s="8" t="s">
-        <v>1518</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="508" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29945,13 +29864,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J508" s="4" t="s">
-        <v>1519</v>
-      </c>
-      <c r="K508" s="4" t="s">
-        <v>1414</v>
+        <v>1484</v>
       </c>
       <c r="L508" s="8" t="s">
-        <v>1520</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="509" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -29987,13 +29903,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J509" s="4" t="s">
-        <v>1521</v>
-      </c>
-      <c r="K509" s="4" t="s">
-        <v>1414</v>
+        <v>1486</v>
       </c>
       <c r="L509" s="8" t="s">
-        <v>1522</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="510" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30029,13 +29942,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J510" s="4" t="s">
-        <v>1523</v>
-      </c>
-      <c r="K510" s="4" t="s">
-        <v>1414</v>
+        <v>1488</v>
       </c>
       <c r="L510" s="8" t="s">
-        <v>1524</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="511" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30071,13 +29981,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J511" s="4" t="s">
-        <v>1525</v>
-      </c>
-      <c r="K511" s="4" t="s">
-        <v>1414</v>
+        <v>1490</v>
       </c>
       <c r="L511" s="8" t="s">
-        <v>1526</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="512" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30113,13 +30020,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J512" s="4" t="s">
-        <v>1527</v>
-      </c>
-      <c r="K512" s="4" t="s">
-        <v>1414</v>
+        <v>1492</v>
       </c>
       <c r="L512" s="8" t="s">
-        <v>1528</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="513" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30155,13 +30059,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J513" s="4" t="s">
-        <v>1529</v>
-      </c>
-      <c r="K513" s="4" t="s">
-        <v>1414</v>
+        <v>1494</v>
       </c>
       <c r="L513" s="8" t="s">
-        <v>1530</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="514" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30197,13 +30098,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J514" s="4" t="s">
-        <v>1531</v>
-      </c>
-      <c r="K514" s="4" t="s">
-        <v>1414</v>
+        <v>1496</v>
       </c>
       <c r="L514" s="8" t="s">
-        <v>1532</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="515" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30239,13 +30137,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J515" s="4" t="s">
-        <v>1533</v>
-      </c>
-      <c r="K515" s="4" t="s">
-        <v>1414</v>
+        <v>1498</v>
       </c>
       <c r="L515" s="8" t="s">
-        <v>1534</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="516" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30281,13 +30176,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J516" s="4" t="s">
-        <v>1535</v>
-      </c>
-      <c r="K516" s="4" t="s">
-        <v>1414</v>
+        <v>1500</v>
       </c>
       <c r="L516" s="8" t="s">
-        <v>1536</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="517" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30323,13 +30215,10 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J517" s="4" t="s">
-        <v>1537</v>
-      </c>
-      <c r="K517" s="4" t="s">
-        <v>1414</v>
+        <v>1502</v>
       </c>
       <c r="L517" s="8" t="s">
-        <v>1538</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="518" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30365,13 +30254,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J518" s="4" t="s">
-        <v>1539</v>
+        <v>1504</v>
       </c>
       <c r="K518" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L518" s="8" t="s">
-        <v>1540</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="519" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30407,13 +30296,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J519" s="4" t="s">
-        <v>1541</v>
+        <v>1506</v>
       </c>
       <c r="K519" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L519" s="8" t="s">
-        <v>1542</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="520" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30449,13 +30338,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J520" s="4" t="s">
-        <v>1543</v>
+        <v>1508</v>
       </c>
       <c r="K520" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L520" s="8" t="s">
-        <v>1544</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="521" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30491,13 +30380,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J521" s="4" t="s">
-        <v>1545</v>
+        <v>1510</v>
       </c>
       <c r="K521" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L521" s="8" t="s">
-        <v>1546</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="522" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30533,13 +30422,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J522" s="4" t="s">
-        <v>1547</v>
+        <v>1512</v>
       </c>
       <c r="K522" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L522" s="8" t="s">
-        <v>1548</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="523" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30575,13 +30464,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J523" s="4" t="s">
-        <v>1549</v>
+        <v>1514</v>
       </c>
       <c r="K523" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L523" s="8" t="s">
-        <v>1550</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="524" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30617,13 +30506,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J524" s="4" t="s">
-        <v>1551</v>
+        <v>1516</v>
       </c>
       <c r="K524" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L524" s="8" t="s">
-        <v>1552</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="525" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30659,13 +30548,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J525" s="4" t="s">
-        <v>1553</v>
+        <v>1518</v>
       </c>
       <c r="K525" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L525" s="8" t="s">
-        <v>1554</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="526" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30701,13 +30590,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J526" s="4" t="s">
-        <v>1555</v>
+        <v>1520</v>
       </c>
       <c r="K526" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L526" s="8" t="s">
-        <v>1556</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="527" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30743,13 +30632,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J527" s="4" t="s">
-        <v>1557</v>
+        <v>1522</v>
       </c>
       <c r="K527" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L527" s="8" t="s">
-        <v>1558</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="528" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30785,13 +30674,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J528" s="4" t="s">
-        <v>1559</v>
+        <v>1524</v>
       </c>
       <c r="K528" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L528" s="8" t="s">
-        <v>1560</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="529" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30827,13 +30716,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J529" s="4" t="s">
-        <v>1561</v>
+        <v>1526</v>
       </c>
       <c r="K529" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L529" s="8" t="s">
-        <v>1562</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="530" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30869,13 +30758,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J530" s="4" t="s">
-        <v>1563</v>
+        <v>1528</v>
       </c>
       <c r="K530" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L530" s="8" t="s">
-        <v>1564</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="531" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30911,13 +30800,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J531" s="4" t="s">
-        <v>1565</v>
+        <v>1530</v>
       </c>
       <c r="K531" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L531" s="8" t="s">
-        <v>1566</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="532" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30953,13 +30842,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J532" s="4" t="s">
-        <v>1567</v>
+        <v>1532</v>
       </c>
       <c r="K532" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L532" s="8" t="s">
-        <v>1568</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="533" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -30995,13 +30884,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J533" s="4" t="s">
-        <v>1569</v>
+        <v>1534</v>
       </c>
       <c r="K533" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L533" s="8" t="s">
-        <v>1570</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="534" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31037,13 +30926,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J534" s="4" t="s">
-        <v>1571</v>
+        <v>1536</v>
       </c>
       <c r="K534" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L534" s="8" t="s">
-        <v>1572</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="535" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31079,13 +30968,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J535" s="4" t="s">
-        <v>1573</v>
+        <v>1538</v>
       </c>
       <c r="K535" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L535" s="8" t="s">
-        <v>1574</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="536" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31121,13 +31010,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J536" s="4" t="s">
-        <v>1575</v>
+        <v>1540</v>
       </c>
       <c r="K536" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L536" s="8" t="s">
-        <v>1576</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="537" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31163,13 +31052,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J537" s="4" t="s">
-        <v>1577</v>
+        <v>1542</v>
       </c>
       <c r="K537" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L537" s="8" t="s">
-        <v>1578</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="538" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31205,13 +31094,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J538" s="4" t="s">
-        <v>1579</v>
+        <v>1544</v>
       </c>
       <c r="K538" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L538" s="8" t="s">
-        <v>1580</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="539" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31247,13 +31136,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J539" s="4" t="s">
-        <v>1581</v>
+        <v>1546</v>
       </c>
       <c r="K539" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L539" s="8" t="s">
-        <v>1582</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="540" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31289,13 +31178,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J540" s="4" t="s">
-        <v>1583</v>
+        <v>1548</v>
       </c>
       <c r="K540" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L540" s="8" t="s">
-        <v>1584</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="541" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31331,13 +31220,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J541" s="4" t="s">
-        <v>1585</v>
+        <v>1550</v>
       </c>
       <c r="K541" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L541" s="8" t="s">
-        <v>1586</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="542" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31373,13 +31262,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J542" s="4" t="s">
-        <v>1587</v>
+        <v>1552</v>
       </c>
       <c r="K542" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L542" s="8" t="s">
-        <v>1588</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="543" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31415,13 +31304,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J543" s="4" t="s">
-        <v>1589</v>
+        <v>1554</v>
       </c>
       <c r="K543" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L543" s="8" t="s">
-        <v>1590</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="544" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31457,13 +31346,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J544" s="4" t="s">
-        <v>1591</v>
+        <v>1556</v>
       </c>
       <c r="K544" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L544" s="8" t="s">
-        <v>1592</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="545" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31499,13 +31388,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J545" s="4" t="s">
-        <v>1593</v>
+        <v>1558</v>
       </c>
       <c r="K545" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L545" s="8" t="s">
-        <v>1594</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="546" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31541,13 +31430,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J546" s="4" t="s">
-        <v>1595</v>
+        <v>1560</v>
       </c>
       <c r="K546" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L546" s="8" t="s">
-        <v>1596</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="547" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31583,13 +31472,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J547" s="4" t="s">
-        <v>1597</v>
+        <v>1562</v>
       </c>
       <c r="K547" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L547" s="8" t="s">
-        <v>1598</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="548" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31625,13 +31514,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J548" s="4" t="s">
-        <v>1599</v>
+        <v>1564</v>
       </c>
       <c r="K548" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L548" s="8" t="s">
-        <v>1600</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="549" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31667,13 +31556,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J549" s="4" t="s">
-        <v>1601</v>
+        <v>1566</v>
       </c>
       <c r="K549" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L549" s="8" t="s">
-        <v>1602</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="550" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31709,13 +31598,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J550" s="4" t="s">
-        <v>1603</v>
+        <v>1568</v>
       </c>
       <c r="K550" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L550" s="8" t="s">
-        <v>1604</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="551" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31751,13 +31640,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J551" s="4" t="s">
-        <v>1605</v>
+        <v>1570</v>
       </c>
       <c r="K551" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L551" s="8" t="s">
-        <v>1606</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="552" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31793,13 +31682,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J552" s="4" t="s">
-        <v>1607</v>
+        <v>1572</v>
       </c>
       <c r="K552" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L552" s="8" t="s">
-        <v>1608</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="553" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31835,13 +31724,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J553" s="4" t="s">
-        <v>1609</v>
+        <v>1574</v>
       </c>
       <c r="K553" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L553" s="8" t="s">
-        <v>1610</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="554" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31877,13 +31766,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J554" s="4" t="s">
-        <v>1611</v>
+        <v>1576</v>
       </c>
       <c r="K554" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L554" s="8" t="s">
-        <v>1612</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="555" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31919,13 +31808,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J555" s="4" t="s">
-        <v>1613</v>
+        <v>1578</v>
       </c>
       <c r="K555" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L555" s="8" t="s">
-        <v>1614</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="556" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -31961,13 +31850,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J556" s="4" t="s">
-        <v>1615</v>
+        <v>1580</v>
       </c>
       <c r="K556" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L556" s="8" t="s">
-        <v>1616</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="557" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32003,13 +31892,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J557" s="4" t="s">
-        <v>1617</v>
+        <v>1582</v>
       </c>
       <c r="K557" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L557" s="8" t="s">
-        <v>1618</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="558" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32045,13 +31934,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J558" s="4" t="s">
-        <v>1619</v>
+        <v>1584</v>
       </c>
       <c r="K558" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L558" s="8" t="s">
-        <v>1620</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="559" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32087,13 +31976,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J559" s="4" t="s">
-        <v>1621</v>
+        <v>1586</v>
       </c>
       <c r="K559" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L559" s="8" t="s">
-        <v>1622</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="560" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32129,13 +32018,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J560" s="4" t="s">
-        <v>1623</v>
+        <v>1588</v>
       </c>
       <c r="K560" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L560" s="8" t="s">
-        <v>1624</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="561" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32171,13 +32060,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J561" s="4" t="s">
-        <v>1625</v>
+        <v>1590</v>
       </c>
       <c r="K561" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L561" s="8" t="s">
-        <v>1626</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="562" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32213,13 +32102,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J562" s="4" t="s">
-        <v>1627</v>
+        <v>1592</v>
       </c>
       <c r="K562" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L562" s="8" t="s">
-        <v>1628</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="563" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32255,13 +32144,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J563" s="4" t="s">
-        <v>1629</v>
+        <v>1594</v>
       </c>
       <c r="K563" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L563" s="8" t="s">
-        <v>1630</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="564" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32297,13 +32186,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J564" s="4" t="s">
-        <v>1631</v>
+        <v>1596</v>
       </c>
       <c r="K564" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L564" s="8" t="s">
-        <v>1632</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="565" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32339,13 +32228,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J565" s="4" t="s">
-        <v>1633</v>
+        <v>1598</v>
       </c>
       <c r="K565" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L565" s="8" t="s">
-        <v>1634</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="566" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32381,13 +32270,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J566" s="4" t="s">
-        <v>1635</v>
+        <v>1600</v>
       </c>
       <c r="K566" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L566" s="8" t="s">
-        <v>1636</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="567" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32423,13 +32312,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J567" s="4" t="s">
-        <v>1637</v>
+        <v>1602</v>
       </c>
       <c r="K567" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L567" s="8" t="s">
-        <v>1638</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="568" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32465,13 +32354,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J568" s="4" t="s">
-        <v>1639</v>
+        <v>1604</v>
       </c>
       <c r="K568" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L568" s="8" t="s">
-        <v>1640</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="569" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32507,13 +32396,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J569" s="4" t="s">
-        <v>1641</v>
+        <v>1606</v>
       </c>
       <c r="K569" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L569" s="8" t="s">
-        <v>1642</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="570" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32549,13 +32438,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J570" s="4" t="s">
-        <v>1643</v>
+        <v>1608</v>
       </c>
       <c r="K570" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L570" s="8" t="s">
-        <v>1644</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="571" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32591,13 +32480,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J571" s="4" t="s">
-        <v>1645</v>
+        <v>1610</v>
       </c>
       <c r="K571" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L571" s="8" t="s">
-        <v>1646</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="572" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32633,13 +32522,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J572" s="4" t="s">
-        <v>1647</v>
+        <v>1612</v>
       </c>
       <c r="K572" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L572" s="8" t="s">
-        <v>1648</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="573" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32675,13 +32564,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J573" s="4" t="s">
-        <v>1649</v>
+        <v>1614</v>
       </c>
       <c r="K573" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L573" s="8" t="s">
-        <v>1650</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="574" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32717,13 +32606,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J574" s="4" t="s">
-        <v>1651</v>
+        <v>1616</v>
       </c>
       <c r="K574" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L574" s="8" t="s">
-        <v>1652</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="575" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32759,13 +32648,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J575" s="4" t="s">
-        <v>1653</v>
+        <v>1618</v>
       </c>
       <c r="K575" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L575" s="8" t="s">
-        <v>1654</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="576" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32801,13 +32690,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J576" s="4" t="s">
-        <v>1655</v>
+        <v>1620</v>
       </c>
       <c r="K576" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L576" s="8" t="s">
-        <v>1656</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="577" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32843,13 +32732,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J577" s="4" t="s">
-        <v>1657</v>
+        <v>1622</v>
       </c>
       <c r="K577" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L577" s="8" t="s">
-        <v>1658</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="578" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32885,13 +32774,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J578" s="4" t="s">
-        <v>1659</v>
+        <v>1624</v>
       </c>
       <c r="K578" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L578" s="8" t="s">
-        <v>1660</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="579" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32927,13 +32816,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J579" s="4" t="s">
-        <v>1661</v>
+        <v>1626</v>
       </c>
       <c r="K579" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L579" s="8" t="s">
-        <v>1662</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="580" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -32969,13 +32858,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J580" s="4" t="s">
-        <v>1663</v>
+        <v>1628</v>
       </c>
       <c r="K580" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L580" s="8" t="s">
-        <v>1664</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="581" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33011,13 +32900,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J581" s="4" t="s">
-        <v>1665</v>
+        <v>1630</v>
       </c>
       <c r="K581" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L581" s="8" t="s">
-        <v>1666</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="582" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33053,13 +32942,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J582" s="4" t="s">
-        <v>1667</v>
+        <v>1632</v>
       </c>
       <c r="K582" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L582" s="8" t="s">
-        <v>1668</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="583" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33095,13 +32984,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J583" s="4" t="s">
-        <v>1669</v>
+        <v>1634</v>
       </c>
       <c r="K583" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L583" s="8" t="s">
-        <v>1670</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="584" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33137,13 +33026,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J584" s="4" t="s">
-        <v>1671</v>
+        <v>1636</v>
       </c>
       <c r="K584" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L584" s="8" t="s">
-        <v>1672</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="585" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33179,13 +33068,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J585" s="4" t="s">
-        <v>1673</v>
+        <v>1638</v>
       </c>
       <c r="K585" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L585" s="8" t="s">
-        <v>1674</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="586" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33221,13 +33110,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J586" s="4" t="s">
-        <v>1675</v>
+        <v>1640</v>
       </c>
       <c r="K586" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L586" s="8" t="s">
-        <v>1676</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="587" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33263,13 +33152,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J587" s="4" t="s">
-        <v>1677</v>
+        <v>1642</v>
       </c>
       <c r="K587" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L587" s="8" t="s">
-        <v>1678</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="588" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33305,13 +33194,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J588" s="4" t="s">
-        <v>1679</v>
+        <v>1644</v>
       </c>
       <c r="K588" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L588" s="8" t="s">
-        <v>1680</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="589" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33347,13 +33236,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J589" s="4" t="s">
-        <v>1681</v>
+        <v>1646</v>
       </c>
       <c r="K589" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L589" s="8" t="s">
-        <v>1682</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="590" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33389,13 +33278,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J590" s="4" t="s">
-        <v>1683</v>
+        <v>1648</v>
       </c>
       <c r="K590" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L590" s="8" t="s">
-        <v>1684</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="591" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33431,13 +33320,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J591" s="4" t="s">
-        <v>1685</v>
+        <v>1650</v>
       </c>
       <c r="K591" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L591" s="8" t="s">
-        <v>1686</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="592" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33473,13 +33362,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J592" s="4" t="s">
-        <v>1687</v>
+        <v>1652</v>
       </c>
       <c r="K592" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L592" s="8" t="s">
-        <v>1688</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="593" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33515,13 +33404,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J593" s="4" t="s">
-        <v>1689</v>
+        <v>1654</v>
       </c>
       <c r="K593" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L593" s="8" t="s">
-        <v>1690</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="594" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33557,13 +33446,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J594" s="4" t="s">
-        <v>1691</v>
+        <v>1656</v>
       </c>
       <c r="K594" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L594" s="8" t="s">
-        <v>1692</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="595" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33599,13 +33488,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J595" s="4" t="s">
-        <v>1693</v>
+        <v>1658</v>
       </c>
       <c r="K595" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L595" s="8" t="s">
-        <v>1694</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="596" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33641,13 +33530,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J596" s="4" t="s">
-        <v>1695</v>
+        <v>1660</v>
       </c>
       <c r="K596" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L596" s="8" t="s">
-        <v>1696</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="597" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33683,13 +33572,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J597" s="4" t="s">
-        <v>1697</v>
+        <v>1662</v>
       </c>
       <c r="K597" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L597" s="8" t="s">
-        <v>1698</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="598" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33725,13 +33614,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J598" s="4" t="s">
-        <v>1699</v>
+        <v>1664</v>
       </c>
       <c r="K598" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L598" s="8" t="s">
-        <v>1700</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="599" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33767,13 +33656,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J599" s="4" t="s">
-        <v>1701</v>
+        <v>1666</v>
       </c>
       <c r="K599" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L599" s="8" t="s">
-        <v>1702</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="600" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33809,13 +33698,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J600" s="4" t="s">
-        <v>1703</v>
+        <v>1668</v>
       </c>
       <c r="K600" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L600" s="8" t="s">
-        <v>1704</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="601" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33851,13 +33740,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J601" s="4" t="s">
-        <v>1705</v>
+        <v>1670</v>
       </c>
       <c r="K601" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L601" s="8" t="s">
-        <v>1706</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="602" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33893,13 +33782,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J602" s="4" t="s">
-        <v>1707</v>
+        <v>1672</v>
       </c>
       <c r="K602" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L602" s="8" t="s">
-        <v>1708</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="603" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33935,13 +33824,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J603" s="4" t="s">
-        <v>1709</v>
+        <v>1674</v>
       </c>
       <c r="K603" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L603" s="8" t="s">
-        <v>1710</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="604" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -33977,13 +33866,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J604" s="4" t="s">
-        <v>1711</v>
+        <v>1676</v>
       </c>
       <c r="K604" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L604" s="8" t="s">
-        <v>1712</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="605" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34019,13 +33908,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J605" s="4" t="s">
-        <v>1713</v>
+        <v>1678</v>
       </c>
       <c r="K605" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L605" s="8" t="s">
-        <v>1714</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="606" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34061,13 +33950,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J606" s="4" t="s">
-        <v>1715</v>
+        <v>1680</v>
       </c>
       <c r="K606" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L606" s="8" t="s">
-        <v>1716</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="607" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34103,13 +33992,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J607" s="4" t="s">
-        <v>1717</v>
+        <v>1682</v>
       </c>
       <c r="K607" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L607" s="8" t="s">
-        <v>1718</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="608" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34145,13 +34034,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J608" s="4" t="s">
-        <v>1719</v>
+        <v>1684</v>
       </c>
       <c r="K608" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L608" s="8" t="s">
-        <v>1720</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="609" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34187,13 +34076,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J609" s="4" t="s">
-        <v>1721</v>
+        <v>1686</v>
       </c>
       <c r="K609" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L609" s="8" t="s">
-        <v>1722</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="610" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34229,13 +34118,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J610" s="4" t="s">
-        <v>1723</v>
+        <v>1688</v>
       </c>
       <c r="K610" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L610" s="8" t="s">
-        <v>1724</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="611" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34271,13 +34160,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J611" s="4" t="s">
-        <v>1725</v>
+        <v>1690</v>
       </c>
       <c r="K611" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L611" s="8" t="s">
-        <v>1726</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="612" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34313,13 +34202,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J612" s="4" t="s">
-        <v>1727</v>
+        <v>1692</v>
       </c>
       <c r="K612" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L612" s="8" t="s">
-        <v>1728</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="613" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34355,13 +34244,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J613" s="4" t="s">
-        <v>1729</v>
+        <v>1694</v>
       </c>
       <c r="K613" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L613" s="8" t="s">
-        <v>1730</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="614" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34397,13 +34286,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J614" s="4" t="s">
-        <v>1731</v>
+        <v>1696</v>
       </c>
       <c r="K614" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L614" s="8" t="s">
-        <v>1732</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="615" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34439,13 +34328,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J615" s="4" t="s">
-        <v>1733</v>
+        <v>1698</v>
       </c>
       <c r="K615" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L615" s="8" t="s">
-        <v>1734</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="616" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34481,13 +34370,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J616" s="4" t="s">
-        <v>1735</v>
+        <v>1700</v>
       </c>
       <c r="K616" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L616" s="8" t="s">
-        <v>1736</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="617" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34523,13 +34412,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J617" s="4" t="s">
-        <v>1737</v>
+        <v>1702</v>
       </c>
       <c r="K617" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L617" s="8" t="s">
-        <v>1738</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="618" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34565,13 +34454,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J618" s="4" t="s">
-        <v>1739</v>
+        <v>1704</v>
       </c>
       <c r="K618" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L618" s="8" t="s">
-        <v>1740</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="619" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34607,13 +34496,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J619" s="4" t="s">
-        <v>1741</v>
+        <v>1706</v>
       </c>
       <c r="K619" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L619" s="8" t="s">
-        <v>1742</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="620" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34649,13 +34538,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J620" s="4" t="s">
-        <v>1743</v>
+        <v>1708</v>
       </c>
       <c r="K620" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L620" s="8" t="s">
-        <v>1744</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="621" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34691,13 +34580,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J621" s="4" t="s">
-        <v>1745</v>
+        <v>1710</v>
       </c>
       <c r="K621" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L621" s="8" t="s">
-        <v>1746</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="622" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34733,13 +34622,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J622" s="4" t="s">
-        <v>1747</v>
+        <v>1712</v>
       </c>
       <c r="K622" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L622" s="8" t="s">
-        <v>1748</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="623" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34775,13 +34664,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J623" s="4" t="s">
-        <v>1749</v>
+        <v>1714</v>
       </c>
       <c r="K623" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L623" s="8" t="s">
-        <v>1750</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="624" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34817,13 +34706,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J624" s="4" t="s">
-        <v>1751</v>
+        <v>1716</v>
       </c>
       <c r="K624" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L624" s="8" t="s">
-        <v>1752</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="625" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34859,13 +34748,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J625" s="4" t="s">
-        <v>1753</v>
+        <v>1718</v>
       </c>
       <c r="K625" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L625" s="8" t="s">
-        <v>1754</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="626" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34901,13 +34790,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J626" s="4" t="s">
-        <v>1755</v>
+        <v>1720</v>
       </c>
       <c r="K626" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L626" s="8" t="s">
-        <v>1756</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="627" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34943,13 +34832,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J627" s="4" t="s">
-        <v>1757</v>
+        <v>1722</v>
       </c>
       <c r="K627" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L627" s="8" t="s">
-        <v>1758</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="628" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -34985,13 +34874,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J628" s="4" t="s">
-        <v>1759</v>
+        <v>1724</v>
       </c>
       <c r="K628" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L628" s="8" t="s">
-        <v>1760</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="629" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35027,13 +34916,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J629" s="4" t="s">
-        <v>1761</v>
+        <v>1726</v>
       </c>
       <c r="K629" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L629" s="8" t="s">
-        <v>1762</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="630" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35069,13 +34958,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J630" s="4" t="s">
-        <v>1763</v>
+        <v>1728</v>
       </c>
       <c r="K630" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L630" s="8" t="s">
-        <v>1764</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="631" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35111,13 +35000,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J631" s="4" t="s">
-        <v>1765</v>
+        <v>1730</v>
       </c>
       <c r="K631" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L631" s="8" t="s">
-        <v>1766</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="632" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35153,13 +35042,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J632" s="4" t="s">
-        <v>1767</v>
+        <v>1732</v>
       </c>
       <c r="K632" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L632" s="8" t="s">
-        <v>1768</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="633" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35195,13 +35084,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J633" s="4" t="s">
-        <v>1769</v>
+        <v>1734</v>
       </c>
       <c r="K633" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L633" s="8" t="s">
-        <v>1770</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="634" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35237,13 +35126,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J634" s="4" t="s">
-        <v>1771</v>
+        <v>1736</v>
       </c>
       <c r="K634" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L634" s="8" t="s">
-        <v>1772</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="635" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35279,13 +35168,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J635" s="4" t="s">
-        <v>1773</v>
+        <v>1738</v>
       </c>
       <c r="K635" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L635" s="8" t="s">
-        <v>1774</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="636" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35321,13 +35210,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J636" s="4" t="s">
-        <v>1775</v>
+        <v>1740</v>
       </c>
       <c r="K636" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L636" s="8" t="s">
-        <v>1776</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="637" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35363,13 +35252,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J637" s="4" t="s">
-        <v>1777</v>
+        <v>1742</v>
       </c>
       <c r="K637" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L637" s="8" t="s">
-        <v>1778</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="638" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35405,13 +35294,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J638" s="4" t="s">
-        <v>1779</v>
+        <v>1744</v>
       </c>
       <c r="K638" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L638" s="8" t="s">
-        <v>1780</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="639" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35447,13 +35336,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J639" s="4" t="s">
-        <v>1781</v>
+        <v>1746</v>
       </c>
       <c r="K639" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L639" s="8" t="s">
-        <v>1782</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="640" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35489,13 +35378,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J640" s="4" t="s">
-        <v>1783</v>
+        <v>1748</v>
       </c>
       <c r="K640" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L640" s="8" t="s">
-        <v>1784</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="641" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35531,13 +35420,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J641" s="4" t="s">
-        <v>1785</v>
+        <v>1750</v>
       </c>
       <c r="K641" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L641" s="8" t="s">
-        <v>1786</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="642" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35573,13 +35462,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J642" s="4" t="s">
-        <v>1787</v>
+        <v>1752</v>
       </c>
       <c r="K642" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L642" s="8" t="s">
-        <v>1788</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="643" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35615,13 +35504,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J643" s="4" t="s">
-        <v>1789</v>
+        <v>1754</v>
       </c>
       <c r="K643" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L643" s="8" t="s">
-        <v>1790</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="644" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35657,13 +35546,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J644" s="4" t="s">
-        <v>1791</v>
+        <v>1756</v>
       </c>
       <c r="K644" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L644" s="8" t="s">
-        <v>1792</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="645" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35699,13 +35588,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J645" s="4" t="s">
-        <v>1793</v>
+        <v>1758</v>
       </c>
       <c r="K645" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L645" s="8" t="s">
-        <v>1794</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="646" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35741,13 +35630,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J646" s="4" t="s">
-        <v>1795</v>
+        <v>1760</v>
       </c>
       <c r="K646" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L646" s="8" t="s">
-        <v>1796</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="647" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35783,13 +35672,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J647" s="4" t="s">
-        <v>1797</v>
+        <v>1762</v>
       </c>
       <c r="K647" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L647" s="8" t="s">
-        <v>1798</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="648" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35825,13 +35714,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J648" s="4" t="s">
-        <v>1799</v>
+        <v>1764</v>
       </c>
       <c r="K648" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L648" s="8" t="s">
-        <v>1800</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="649" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35867,13 +35756,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J649" s="4" t="s">
-        <v>1801</v>
+        <v>1766</v>
       </c>
       <c r="K649" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L649" s="8" t="s">
-        <v>1802</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="650" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35909,13 +35798,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J650" s="4" t="s">
-        <v>1803</v>
+        <v>1768</v>
       </c>
       <c r="K650" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L650" s="8" t="s">
-        <v>1804</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="651" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35951,13 +35840,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J651" s="4" t="s">
-        <v>1805</v>
+        <v>1770</v>
       </c>
       <c r="K651" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L651" s="8" t="s">
-        <v>1806</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="652" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -35993,13 +35882,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J652" s="4" t="s">
-        <v>1807</v>
+        <v>1772</v>
       </c>
       <c r="K652" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L652" s="8" t="s">
-        <v>1808</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="653" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36035,13 +35924,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J653" s="4" t="s">
-        <v>1809</v>
+        <v>1774</v>
       </c>
       <c r="K653" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L653" s="8" t="s">
-        <v>1810</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="654" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36077,13 +35966,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J654" s="4" t="s">
-        <v>1811</v>
+        <v>1776</v>
       </c>
       <c r="K654" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L654" s="8" t="s">
-        <v>1812</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="655" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36119,13 +36008,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J655" s="4" t="s">
-        <v>1813</v>
+        <v>1778</v>
       </c>
       <c r="K655" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L655" s="8" t="s">
-        <v>1814</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="656" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36161,13 +36050,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J656" s="4" t="s">
-        <v>1815</v>
+        <v>1780</v>
       </c>
       <c r="K656" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L656" s="8" t="s">
-        <v>1816</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="657" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36203,13 +36092,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J657" s="4" t="s">
-        <v>1817</v>
+        <v>1782</v>
       </c>
       <c r="K657" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L657" s="8" t="s">
-        <v>1818</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="658" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36245,13 +36134,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J658" s="4" t="s">
-        <v>1819</v>
+        <v>1784</v>
       </c>
       <c r="K658" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L658" s="8" t="s">
-        <v>1820</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="659" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36287,13 +36176,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J659" s="4" t="s">
-        <v>1821</v>
+        <v>1786</v>
       </c>
       <c r="K659" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L659" s="8" t="s">
-        <v>1822</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="660" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36329,13 +36218,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J660" s="4" t="s">
-        <v>1823</v>
+        <v>1788</v>
       </c>
       <c r="K660" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L660" s="8" t="s">
-        <v>1824</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="661" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36371,13 +36260,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J661" s="4" t="s">
-        <v>1825</v>
+        <v>1790</v>
       </c>
       <c r="K661" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L661" s="8" t="s">
-        <v>1826</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="662" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36413,13 +36302,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J662" s="4" t="s">
-        <v>1827</v>
+        <v>1792</v>
       </c>
       <c r="K662" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L662" s="8" t="s">
-        <v>1828</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="663" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36455,13 +36344,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J663" s="4" t="s">
-        <v>1829</v>
+        <v>1794</v>
       </c>
       <c r="K663" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L663" s="8" t="s">
-        <v>1830</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="664" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36497,13 +36386,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J664" s="4" t="s">
-        <v>1831</v>
+        <v>1796</v>
       </c>
       <c r="K664" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L664" s="8" t="s">
-        <v>1832</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="665" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36539,13 +36428,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J665" s="4" t="s">
-        <v>1833</v>
+        <v>1798</v>
       </c>
       <c r="K665" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L665" s="8" t="s">
-        <v>1834</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="666" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36581,13 +36470,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J666" s="4" t="s">
-        <v>1835</v>
+        <v>1800</v>
       </c>
       <c r="K666" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L666" s="8" t="s">
-        <v>1836</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="667" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36623,13 +36512,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J667" s="4" t="s">
-        <v>1837</v>
+        <v>1802</v>
       </c>
       <c r="K667" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L667" s="8" t="s">
-        <v>1838</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="668" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36665,13 +36554,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J668" s="4" t="s">
-        <v>1839</v>
+        <v>1804</v>
       </c>
       <c r="K668" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L668" s="8" t="s">
-        <v>1840</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="669" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36707,13 +36596,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J669" s="4" t="s">
-        <v>1841</v>
+        <v>1806</v>
       </c>
       <c r="K669" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L669" s="8" t="s">
-        <v>1842</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="670" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36749,13 +36638,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J670" s="4" t="s">
-        <v>1843</v>
+        <v>1808</v>
       </c>
       <c r="K670" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L670" s="8" t="s">
-        <v>1844</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="671" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36791,13 +36680,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J671" s="4" t="s">
-        <v>1845</v>
+        <v>1810</v>
       </c>
       <c r="K671" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L671" s="8" t="s">
-        <v>1846</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="672" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36833,13 +36722,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J672" s="4" t="s">
-        <v>1847</v>
+        <v>1812</v>
       </c>
       <c r="K672" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L672" s="8" t="s">
-        <v>1848</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="673" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36875,13 +36764,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J673" s="4" t="s">
-        <v>1849</v>
+        <v>1814</v>
       </c>
       <c r="K673" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L673" s="8" t="s">
-        <v>1850</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="674" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36917,13 +36806,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J674" s="4" t="s">
-        <v>1851</v>
+        <v>1816</v>
       </c>
       <c r="K674" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L674" s="8" t="s">
-        <v>1852</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="675" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -36959,13 +36848,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J675" s="4" t="s">
-        <v>1853</v>
+        <v>1818</v>
       </c>
       <c r="K675" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L675" s="8" t="s">
-        <v>1854</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="676" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37001,13 +36890,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J676" s="4" t="s">
-        <v>1855</v>
+        <v>1820</v>
       </c>
       <c r="K676" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L676" s="8" t="s">
-        <v>1856</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="677" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37043,13 +36932,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J677" s="4" t="s">
-        <v>1857</v>
+        <v>1822</v>
       </c>
       <c r="K677" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L677" s="8" t="s">
-        <v>1858</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="678" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37085,13 +36974,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J678" s="4" t="s">
-        <v>1859</v>
+        <v>1824</v>
       </c>
       <c r="K678" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L678" s="8" t="s">
-        <v>1860</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="679" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37127,13 +37016,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J679" s="4" t="s">
-        <v>1861</v>
+        <v>1826</v>
       </c>
       <c r="K679" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L679" s="8" t="s">
-        <v>1862</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="680" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37169,13 +37058,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J680" s="4" t="s">
-        <v>1863</v>
+        <v>1828</v>
       </c>
       <c r="K680" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L680" s="8" t="s">
-        <v>1864</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="681" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37211,13 +37100,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J681" s="4" t="s">
-        <v>1865</v>
+        <v>1830</v>
       </c>
       <c r="K681" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L681" s="8" t="s">
-        <v>1866</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="682" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37253,13 +37142,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J682" s="4" t="s">
-        <v>1867</v>
+        <v>1832</v>
       </c>
       <c r="K682" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L682" s="8" t="s">
-        <v>1868</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="683" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37295,13 +37184,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J683" s="4" t="s">
-        <v>1869</v>
+        <v>1834</v>
       </c>
       <c r="K683" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L683" s="8" t="s">
-        <v>1870</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="684" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37337,13 +37226,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J684" s="4" t="s">
-        <v>1871</v>
+        <v>1836</v>
       </c>
       <c r="K684" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L684" s="8" t="s">
-        <v>1872</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="685" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37379,13 +37268,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J685" s="4" t="s">
-        <v>1873</v>
+        <v>1838</v>
       </c>
       <c r="K685" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L685" s="8" t="s">
-        <v>1874</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="686" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37421,13 +37310,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J686" s="4" t="s">
-        <v>1875</v>
+        <v>1840</v>
       </c>
       <c r="K686" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L686" s="8" t="s">
-        <v>1876</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="687" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37463,13 +37352,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J687" s="4" t="s">
-        <v>1877</v>
+        <v>1842</v>
       </c>
       <c r="K687" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L687" s="8" t="s">
-        <v>1878</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="688" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37505,13 +37394,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J688" s="4" t="s">
-        <v>1879</v>
+        <v>1844</v>
       </c>
       <c r="K688" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L688" s="8" t="s">
-        <v>1880</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="689" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37547,13 +37436,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J689" s="4" t="s">
-        <v>1881</v>
+        <v>1846</v>
       </c>
       <c r="K689" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L689" s="8" t="s">
-        <v>1882</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="690" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37589,13 +37478,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J690" s="4" t="s">
-        <v>1883</v>
+        <v>1848</v>
       </c>
       <c r="K690" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L690" s="8" t="s">
-        <v>1884</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="691" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37631,13 +37520,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J691" s="4" t="s">
-        <v>1885</v>
+        <v>1850</v>
       </c>
       <c r="K691" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L691" s="8" t="s">
-        <v>1886</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="692" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37673,13 +37562,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J692" s="4" t="s">
-        <v>1887</v>
+        <v>1852</v>
       </c>
       <c r="K692" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L692" s="8" t="s">
-        <v>1888</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="693" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37715,13 +37604,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J693" s="4" t="s">
-        <v>1889</v>
+        <v>1854</v>
       </c>
       <c r="K693" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L693" s="8" t="s">
-        <v>1890</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="694" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37757,13 +37646,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J694" s="4" t="s">
-        <v>1891</v>
+        <v>1856</v>
       </c>
       <c r="K694" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L694" s="8" t="s">
-        <v>1892</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="695" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37799,13 +37688,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J695" s="4" t="s">
-        <v>1893</v>
+        <v>1858</v>
       </c>
       <c r="K695" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L695" s="8" t="s">
-        <v>1894</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="696" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37841,13 +37730,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J696" s="4" t="s">
-        <v>1895</v>
+        <v>1860</v>
       </c>
       <c r="K696" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L696" s="8" t="s">
-        <v>1896</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="697" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37883,13 +37772,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J697" s="4" t="s">
-        <v>1897</v>
+        <v>1862</v>
       </c>
       <c r="K697" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L697" s="8" t="s">
-        <v>1898</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="698" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37925,13 +37814,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J698" s="4" t="s">
-        <v>1899</v>
+        <v>1864</v>
       </c>
       <c r="K698" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L698" s="8" t="s">
-        <v>1900</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="699" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -37967,13 +37856,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J699" s="4" t="s">
-        <v>1901</v>
+        <v>1866</v>
       </c>
       <c r="K699" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L699" s="8" t="s">
-        <v>1902</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="700" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38009,13 +37898,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J700" s="4" t="s">
-        <v>1903</v>
+        <v>1868</v>
       </c>
       <c r="K700" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L700" s="8" t="s">
-        <v>1904</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="701" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38051,13 +37940,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J701" s="4" t="s">
-        <v>1905</v>
+        <v>1870</v>
       </c>
       <c r="K701" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L701" s="8" t="s">
-        <v>1906</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="702" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38093,13 +37982,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J702" s="4" t="s">
-        <v>1907</v>
+        <v>1872</v>
       </c>
       <c r="K702" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L702" s="8" t="s">
-        <v>1908</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="703" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38135,13 +38024,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J703" s="4" t="s">
-        <v>1909</v>
+        <v>1874</v>
       </c>
       <c r="K703" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L703" s="8" t="s">
-        <v>1910</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="704" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38177,13 +38066,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J704" s="4" t="s">
-        <v>1911</v>
+        <v>1876</v>
       </c>
       <c r="K704" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L704" s="8" t="s">
-        <v>1912</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="705" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38219,13 +38108,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J705" s="4" t="s">
-        <v>1913</v>
+        <v>1878</v>
       </c>
       <c r="K705" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L705" s="8" t="s">
-        <v>1914</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="706" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38261,13 +38150,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J706" s="4" t="s">
-        <v>1915</v>
+        <v>1880</v>
       </c>
       <c r="K706" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L706" s="8" t="s">
-        <v>1916</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="707" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38303,13 +38192,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J707" s="4" t="s">
-        <v>1917</v>
+        <v>1882</v>
       </c>
       <c r="K707" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L707" s="8" t="s">
-        <v>1918</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="708" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38345,13 +38234,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J708" s="4" t="s">
-        <v>1919</v>
+        <v>1884</v>
       </c>
       <c r="K708" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L708" s="8" t="s">
-        <v>1920</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="709" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38387,13 +38276,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J709" s="4" t="s">
-        <v>1921</v>
+        <v>1886</v>
       </c>
       <c r="K709" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L709" s="8" t="s">
-        <v>1922</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="710" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38429,13 +38318,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J710" s="4" t="s">
-        <v>1923</v>
+        <v>1888</v>
       </c>
       <c r="K710" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L710" s="8" t="s">
-        <v>1924</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="711" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38471,13 +38360,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J711" s="4" t="s">
-        <v>1925</v>
+        <v>1890</v>
       </c>
       <c r="K711" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L711" s="8" t="s">
-        <v>1926</v>
+        <v>1891</v>
       </c>
     </row>
     <row r="712" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38513,13 +38402,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J712" s="4" t="s">
-        <v>1927</v>
+        <v>1892</v>
       </c>
       <c r="K712" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L712" s="8" t="s">
-        <v>1928</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="713" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38555,13 +38444,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J713" s="4" t="s">
-        <v>1929</v>
+        <v>1894</v>
       </c>
       <c r="K713" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L713" s="8" t="s">
-        <v>1930</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="714" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38597,13 +38486,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J714" s="4" t="s">
-        <v>1931</v>
+        <v>1896</v>
       </c>
       <c r="K714" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L714" s="8" t="s">
-        <v>1932</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="715" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38639,13 +38528,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J715" s="4" t="s">
-        <v>1933</v>
+        <v>1898</v>
       </c>
       <c r="K715" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L715" s="8" t="s">
-        <v>1934</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="716" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38681,13 +38570,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J716" s="4" t="s">
-        <v>1935</v>
+        <v>1900</v>
       </c>
       <c r="K716" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L716" s="8" t="s">
-        <v>1936</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="717" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38723,13 +38612,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J717" s="4" t="s">
-        <v>1937</v>
+        <v>1902</v>
       </c>
       <c r="K717" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L717" s="8" t="s">
-        <v>1938</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="718" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38765,13 +38654,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J718" s="4" t="s">
-        <v>1939</v>
+        <v>1904</v>
       </c>
       <c r="K718" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L718" s="8" t="s">
-        <v>1940</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="719" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38807,13 +38696,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J719" s="4" t="s">
-        <v>1941</v>
+        <v>1906</v>
       </c>
       <c r="K719" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L719" s="8" t="s">
-        <v>1942</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="720" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38849,13 +38738,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J720" s="4" t="s">
-        <v>1943</v>
+        <v>1908</v>
       </c>
       <c r="K720" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L720" s="8" t="s">
-        <v>1944</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="721" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38891,13 +38780,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J721" s="4" t="s">
-        <v>1945</v>
+        <v>1910</v>
       </c>
       <c r="K721" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L721" s="8" t="s">
-        <v>1946</v>
+        <v>1911</v>
       </c>
     </row>
     <row r="722" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38933,13 +38822,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J722" s="4" t="s">
-        <v>1947</v>
+        <v>1912</v>
       </c>
       <c r="K722" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L722" s="8" t="s">
-        <v>1948</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="723" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -38975,13 +38864,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J723" s="4" t="s">
-        <v>1949</v>
+        <v>1914</v>
       </c>
       <c r="K723" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L723" s="8" t="s">
-        <v>1950</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="724" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39017,13 +38906,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J724" s="4" t="s">
-        <v>1951</v>
+        <v>1916</v>
       </c>
       <c r="K724" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L724" s="8" t="s">
-        <v>1952</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="725" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39059,13 +38948,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J725" s="4" t="s">
-        <v>1953</v>
+        <v>1918</v>
       </c>
       <c r="K725" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L725" s="8" t="s">
-        <v>1954</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="726" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39101,13 +38990,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J726" s="4" t="s">
-        <v>1955</v>
+        <v>1920</v>
       </c>
       <c r="K726" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L726" s="8" t="s">
-        <v>1956</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="727" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39143,13 +39032,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J727" s="4" t="s">
-        <v>1957</v>
+        <v>1922</v>
       </c>
       <c r="K727" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L727" s="8" t="s">
-        <v>1958</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="728" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39185,13 +39074,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J728" s="4" t="s">
-        <v>1959</v>
+        <v>1924</v>
       </c>
       <c r="K728" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L728" s="8" t="s">
-        <v>1960</v>
+        <v>1925</v>
       </c>
     </row>
     <row r="729" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39227,13 +39116,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J729" s="4" t="s">
-        <v>1961</v>
+        <v>1926</v>
       </c>
       <c r="K729" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L729" s="8" t="s">
-        <v>1962</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="730" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39269,13 +39158,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J730" s="4" t="s">
-        <v>1963</v>
+        <v>1928</v>
       </c>
       <c r="K730" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L730" s="8" t="s">
-        <v>1964</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="731" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39311,13 +39200,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J731" s="4" t="s">
-        <v>1965</v>
+        <v>1930</v>
       </c>
       <c r="K731" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L731" s="8" t="s">
-        <v>1966</v>
+        <v>1931</v>
       </c>
     </row>
     <row r="732" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39353,13 +39242,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J732" s="4" t="s">
-        <v>1967</v>
+        <v>1932</v>
       </c>
       <c r="K732" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L732" s="8" t="s">
-        <v>1968</v>
+        <v>1933</v>
       </c>
     </row>
     <row r="733" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39395,13 +39284,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J733" s="4" t="s">
-        <v>1969</v>
+        <v>1934</v>
       </c>
       <c r="K733" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L733" s="8" t="s">
-        <v>1970</v>
+        <v>1935</v>
       </c>
     </row>
     <row r="734" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39437,13 +39326,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J734" s="4" t="s">
-        <v>1971</v>
+        <v>1936</v>
       </c>
       <c r="K734" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L734" s="8" t="s">
-        <v>1972</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="735" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39479,13 +39368,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J735" s="4" t="s">
-        <v>1973</v>
+        <v>1938</v>
       </c>
       <c r="K735" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L735" s="8" t="s">
-        <v>1974</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="736" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39521,13 +39410,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J736" s="4" t="s">
-        <v>1975</v>
+        <v>1940</v>
       </c>
       <c r="K736" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L736" s="8" t="s">
-        <v>1976</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="737" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39563,13 +39452,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J737" s="4" t="s">
-        <v>1977</v>
+        <v>1942</v>
       </c>
       <c r="K737" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L737" s="8" t="s">
-        <v>1978</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="738" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39605,13 +39494,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J738" s="4" t="s">
-        <v>1979</v>
+        <v>1944</v>
       </c>
       <c r="K738" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L738" s="8" t="s">
-        <v>1980</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="739" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39647,13 +39536,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J739" s="4" t="s">
-        <v>1981</v>
+        <v>1946</v>
       </c>
       <c r="K739" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L739" s="8" t="s">
-        <v>1982</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="740" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39689,13 +39578,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J740" s="4" t="s">
-        <v>1983</v>
+        <v>1948</v>
       </c>
       <c r="K740" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L740" s="8" t="s">
-        <v>1984</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="741" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39731,13 +39620,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J741" s="4" t="s">
-        <v>1985</v>
+        <v>1950</v>
       </c>
       <c r="K741" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L741" s="8" t="s">
-        <v>1986</v>
+        <v>1951</v>
       </c>
     </row>
     <row r="742" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39773,13 +39662,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J742" s="4" t="s">
-        <v>1987</v>
+        <v>1952</v>
       </c>
       <c r="K742" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L742" s="8" t="s">
-        <v>1988</v>
+        <v>1953</v>
       </c>
     </row>
     <row r="743" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39815,13 +39704,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J743" s="4" t="s">
-        <v>1989</v>
+        <v>1954</v>
       </c>
       <c r="K743" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L743" s="8" t="s">
-        <v>1990</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="744" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39857,13 +39746,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J744" s="4" t="s">
-        <v>1991</v>
+        <v>1956</v>
       </c>
       <c r="K744" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L744" s="8" t="s">
-        <v>1992</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="745" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39899,13 +39788,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J745" s="4" t="s">
-        <v>1993</v>
+        <v>1958</v>
       </c>
       <c r="K745" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L745" s="8" t="s">
-        <v>1994</v>
+        <v>1959</v>
       </c>
     </row>
     <row r="746" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39941,13 +39830,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J746" s="4" t="s">
-        <v>1995</v>
+        <v>1960</v>
       </c>
       <c r="K746" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L746" s="8" t="s">
-        <v>1996</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="747" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -39983,13 +39872,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J747" s="4" t="s">
-        <v>1997</v>
+        <v>1962</v>
       </c>
       <c r="K747" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L747" s="8" t="s">
-        <v>1998</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="748" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40025,13 +39914,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J748" s="4" t="s">
-        <v>1999</v>
+        <v>1964</v>
       </c>
       <c r="K748" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L748" s="8" t="s">
-        <v>2000</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="749" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40067,13 +39956,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J749" s="4" t="s">
-        <v>2001</v>
+        <v>1966</v>
       </c>
       <c r="K749" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L749" s="8" t="s">
-        <v>2002</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="750" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40109,13 +39998,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J750" s="4" t="s">
-        <v>2003</v>
+        <v>1968</v>
       </c>
       <c r="K750" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L750" s="8" t="s">
-        <v>2004</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="751" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40151,13 +40040,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J751" s="4" t="s">
-        <v>2005</v>
+        <v>1970</v>
       </c>
       <c r="K751" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L751" s="8" t="s">
-        <v>2006</v>
+        <v>1971</v>
       </c>
     </row>
     <row r="752" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40193,13 +40082,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J752" s="4" t="s">
-        <v>2007</v>
+        <v>1972</v>
       </c>
       <c r="K752" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L752" s="8" t="s">
-        <v>2008</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="753" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40235,13 +40124,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J753" s="4" t="s">
-        <v>2009</v>
+        <v>1974</v>
       </c>
       <c r="K753" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L753" s="8" t="s">
-        <v>2010</v>
+        <v>1975</v>
       </c>
     </row>
     <row r="754" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40277,13 +40166,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J754" s="4" t="s">
-        <v>2011</v>
+        <v>1976</v>
       </c>
       <c r="K754" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L754" s="8" t="s">
-        <v>2012</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="755" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40319,13 +40208,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J755" s="4" t="s">
-        <v>2013</v>
+        <v>1978</v>
       </c>
       <c r="K755" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L755" s="8" t="s">
-        <v>2014</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="756" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40361,13 +40250,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J756" s="4" t="s">
-        <v>2015</v>
+        <v>1980</v>
       </c>
       <c r="K756" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L756" s="8" t="s">
-        <v>2016</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="757" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40403,13 +40292,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J757" s="4" t="s">
-        <v>2017</v>
+        <v>1982</v>
       </c>
       <c r="K757" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L757" s="8" t="s">
-        <v>2018</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="758" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40445,13 +40334,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J758" s="4" t="s">
-        <v>2019</v>
+        <v>1984</v>
       </c>
       <c r="K758" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L758" s="8" t="s">
-        <v>2020</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="759" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40487,13 +40376,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J759" s="4" t="s">
-        <v>2021</v>
+        <v>1986</v>
       </c>
       <c r="K759" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L759" s="8" t="s">
-        <v>2022</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="760" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40529,13 +40418,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J760" s="4" t="s">
-        <v>2023</v>
+        <v>1988</v>
       </c>
       <c r="K760" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L760" s="8" t="s">
-        <v>2024</v>
+        <v>1989</v>
       </c>
     </row>
     <row r="761" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40571,13 +40460,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J761" s="4" t="s">
-        <v>2025</v>
+        <v>1990</v>
       </c>
       <c r="K761" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L761" s="8" t="s">
-        <v>2026</v>
+        <v>1991</v>
       </c>
     </row>
     <row r="762" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40613,13 +40502,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J762" s="4" t="s">
-        <v>2027</v>
+        <v>1992</v>
       </c>
       <c r="K762" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L762" s="8" t="s">
-        <v>2028</v>
+        <v>1993</v>
       </c>
     </row>
     <row r="763" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40655,13 +40544,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J763" s="4" t="s">
-        <v>2029</v>
+        <v>1994</v>
       </c>
       <c r="K763" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L763" s="8" t="s">
-        <v>2030</v>
+        <v>1995</v>
       </c>
     </row>
     <row r="764" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40697,13 +40586,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J764" s="4" t="s">
-        <v>2031</v>
+        <v>1996</v>
       </c>
       <c r="K764" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L764" s="8" t="s">
-        <v>2032</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="765" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40739,13 +40628,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J765" s="4" t="s">
-        <v>2033</v>
+        <v>1998</v>
       </c>
       <c r="K765" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L765" s="8" t="s">
-        <v>2034</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="766" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40781,13 +40670,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J766" s="4" t="s">
-        <v>2035</v>
+        <v>2000</v>
       </c>
       <c r="K766" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L766" s="8" t="s">
-        <v>2036</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="767" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40823,13 +40712,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J767" s="4" t="s">
-        <v>2037</v>
+        <v>2002</v>
       </c>
       <c r="K767" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L767" s="8" t="s">
-        <v>2038</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="768" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40865,13 +40754,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J768" s="4" t="s">
-        <v>2039</v>
+        <v>2004</v>
       </c>
       <c r="K768" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L768" s="8" t="s">
-        <v>2040</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="769" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40907,13 +40796,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J769" s="4" t="s">
-        <v>2041</v>
+        <v>2006</v>
       </c>
       <c r="K769" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L769" s="8" t="s">
-        <v>2042</v>
+        <v>2007</v>
       </c>
     </row>
     <row r="770" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40949,13 +40838,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J770" s="4" t="s">
-        <v>2043</v>
+        <v>2008</v>
       </c>
       <c r="K770" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L770" s="8" t="s">
-        <v>2044</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="771" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -40991,13 +40880,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J771" s="4" t="s">
-        <v>2045</v>
+        <v>2010</v>
       </c>
       <c r="K771" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L771" s="8" t="s">
-        <v>2046</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="772" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41033,13 +40922,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J772" s="4" t="s">
-        <v>2047</v>
+        <v>2012</v>
       </c>
       <c r="K772" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L772" s="8" t="s">
-        <v>2048</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="773" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41075,13 +40964,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J773" s="4" t="s">
-        <v>2049</v>
+        <v>2014</v>
       </c>
       <c r="K773" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L773" s="8" t="s">
-        <v>2050</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="774" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41117,13 +41006,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J774" s="4" t="s">
-        <v>2051</v>
+        <v>2016</v>
       </c>
       <c r="K774" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L774" s="8" t="s">
-        <v>2052</v>
+        <v>2017</v>
       </c>
     </row>
     <row r="775" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41159,13 +41048,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J775" s="4" t="s">
-        <v>2053</v>
+        <v>2018</v>
       </c>
       <c r="K775" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L775" s="8" t="s">
-        <v>2054</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="776" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41201,13 +41090,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J776" s="4" t="s">
-        <v>2055</v>
+        <v>2020</v>
       </c>
       <c r="K776" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L776" s="8" t="s">
-        <v>2056</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="777" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41243,13 +41132,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J777" s="4" t="s">
-        <v>2057</v>
+        <v>2022</v>
       </c>
       <c r="K777" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L777" s="8" t="s">
-        <v>2058</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="778" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41285,13 +41174,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J778" s="4" t="s">
-        <v>2059</v>
+        <v>2024</v>
       </c>
       <c r="K778" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L778" s="8" t="s">
-        <v>2060</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="779" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41327,13 +41216,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J779" s="4" t="s">
-        <v>2061</v>
+        <v>2026</v>
       </c>
       <c r="K779" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L779" s="8" t="s">
-        <v>2062</v>
+        <v>2027</v>
       </c>
     </row>
     <row r="780" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41369,13 +41258,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J780" s="4" t="s">
-        <v>2063</v>
+        <v>2028</v>
       </c>
       <c r="K780" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L780" s="8" t="s">
-        <v>2064</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="781" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41411,13 +41300,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J781" s="4" t="s">
-        <v>2065</v>
+        <v>2030</v>
       </c>
       <c r="K781" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L781" s="8" t="s">
-        <v>2066</v>
+        <v>2031</v>
       </c>
     </row>
     <row r="782" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41453,13 +41342,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J782" s="4" t="s">
-        <v>2067</v>
+        <v>2032</v>
       </c>
       <c r="K782" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L782" s="8" t="s">
-        <v>2068</v>
+        <v>2033</v>
       </c>
     </row>
     <row r="783" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41495,13 +41384,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J783" s="4" t="s">
-        <v>2069</v>
+        <v>2034</v>
       </c>
       <c r="K783" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L783" s="8" t="s">
-        <v>2070</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="784" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41537,13 +41426,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J784" s="4" t="s">
-        <v>2071</v>
+        <v>2036</v>
       </c>
       <c r="K784" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L784" s="8" t="s">
-        <v>2072</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="785" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41579,13 +41468,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J785" s="4" t="s">
-        <v>2073</v>
+        <v>2038</v>
       </c>
       <c r="K785" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L785" s="8" t="s">
-        <v>2074</v>
+        <v>2039</v>
       </c>
     </row>
     <row r="786" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41621,13 +41510,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J786" s="4" t="s">
-        <v>2075</v>
+        <v>2040</v>
       </c>
       <c r="K786" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L786" s="8" t="s">
-        <v>2076</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="787" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41663,13 +41552,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J787" s="4" t="s">
-        <v>2077</v>
+        <v>2042</v>
       </c>
       <c r="K787" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L787" s="8" t="s">
-        <v>2078</v>
+        <v>2043</v>
       </c>
     </row>
     <row r="788" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41705,13 +41594,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J788" s="4" t="s">
-        <v>2079</v>
+        <v>2044</v>
       </c>
       <c r="K788" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L788" s="8" t="s">
-        <v>2080</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="789" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41747,13 +41636,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J789" s="4" t="s">
-        <v>2081</v>
+        <v>2046</v>
       </c>
       <c r="K789" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L789" s="8" t="s">
-        <v>2082</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="790" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41789,13 +41678,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J790" s="4" t="s">
-        <v>2083</v>
+        <v>2048</v>
       </c>
       <c r="K790" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L790" s="8" t="s">
-        <v>2084</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="791" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41831,13 +41720,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J791" s="4" t="s">
-        <v>2085</v>
+        <v>2050</v>
       </c>
       <c r="K791" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L791" s="8" t="s">
-        <v>2086</v>
+        <v>2051</v>
       </c>
     </row>
     <row r="792" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41873,13 +41762,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J792" s="4" t="s">
-        <v>2087</v>
+        <v>2052</v>
       </c>
       <c r="K792" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L792" s="8" t="s">
-        <v>2088</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="793" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41915,13 +41804,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J793" s="4" t="s">
-        <v>2089</v>
+        <v>2054</v>
       </c>
       <c r="K793" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L793" s="8" t="s">
-        <v>2090</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="794" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41957,13 +41846,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J794" s="4" t="s">
-        <v>2091</v>
+        <v>2056</v>
       </c>
       <c r="K794" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L794" s="8" t="s">
-        <v>2092</v>
+        <v>2057</v>
       </c>
     </row>
     <row r="795" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -41999,13 +41888,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J795" s="4" t="s">
-        <v>2093</v>
+        <v>2058</v>
       </c>
       <c r="K795" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L795" s="8" t="s">
-        <v>2094</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="796" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42041,13 +41930,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J796" s="4" t="s">
-        <v>2095</v>
+        <v>2060</v>
       </c>
       <c r="K796" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L796" s="8" t="s">
-        <v>2096</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="797" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42083,13 +41972,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J797" s="4" t="s">
-        <v>2097</v>
+        <v>2062</v>
       </c>
       <c r="K797" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L797" s="8" t="s">
-        <v>2098</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="798" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42125,13 +42014,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J798" s="4" t="s">
-        <v>2099</v>
+        <v>2064</v>
       </c>
       <c r="K798" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L798" s="8" t="s">
-        <v>2100</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="799" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42167,13 +42056,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J799" s="4" t="s">
-        <v>2101</v>
+        <v>2066</v>
       </c>
       <c r="K799" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L799" s="8" t="s">
-        <v>2102</v>
+        <v>2067</v>
       </c>
     </row>
     <row r="800" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42209,13 +42098,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J800" s="4" t="s">
-        <v>2103</v>
+        <v>2068</v>
       </c>
       <c r="K800" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L800" s="8" t="s">
-        <v>2104</v>
+        <v>2069</v>
       </c>
     </row>
     <row r="801" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42251,13 +42140,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J801" s="4" t="s">
-        <v>2105</v>
+        <v>2070</v>
       </c>
       <c r="K801" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L801" s="8" t="s">
-        <v>2106</v>
+        <v>2071</v>
       </c>
     </row>
     <row r="802" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42293,13 +42182,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J802" s="4" t="s">
-        <v>2107</v>
+        <v>2072</v>
       </c>
       <c r="K802" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L802" s="8" t="s">
-        <v>2108</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="803" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42335,13 +42224,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J803" s="4" t="s">
-        <v>2109</v>
+        <v>2074</v>
       </c>
       <c r="K803" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L803" s="8" t="s">
-        <v>2110</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="804" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42377,13 +42266,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J804" s="4" t="s">
-        <v>2111</v>
+        <v>2076</v>
       </c>
       <c r="K804" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L804" s="8" t="s">
-        <v>2112</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="805" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42419,13 +42308,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J805" s="4" t="s">
-        <v>2113</v>
+        <v>2078</v>
       </c>
       <c r="K805" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L805" s="8" t="s">
-        <v>2114</v>
+        <v>2079</v>
       </c>
     </row>
     <row r="806" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42461,13 +42350,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J806" s="4" t="s">
-        <v>2115</v>
+        <v>2080</v>
       </c>
       <c r="K806" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L806" s="8" t="s">
-        <v>2116</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="807" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42503,13 +42392,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J807" s="4" t="s">
-        <v>2117</v>
+        <v>2082</v>
       </c>
       <c r="K807" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L807" s="8" t="s">
-        <v>2118</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="808" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42545,13 +42434,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J808" s="4" t="s">
-        <v>2119</v>
+        <v>2084</v>
       </c>
       <c r="K808" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L808" s="8" t="s">
-        <v>2120</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="809" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42587,13 +42476,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J809" s="4" t="s">
-        <v>2121</v>
+        <v>2086</v>
       </c>
       <c r="K809" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L809" s="8" t="s">
-        <v>2122</v>
+        <v>2087</v>
       </c>
     </row>
     <row r="810" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42629,13 +42518,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J810" s="4" t="s">
-        <v>2123</v>
+        <v>2088</v>
       </c>
       <c r="K810" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L810" s="8" t="s">
-        <v>2124</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="811" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42671,13 +42560,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J811" s="4" t="s">
-        <v>2125</v>
+        <v>2090</v>
       </c>
       <c r="K811" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L811" s="8" t="s">
-        <v>2126</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="812" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42713,13 +42602,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J812" s="4" t="s">
-        <v>2127</v>
+        <v>2092</v>
       </c>
       <c r="K812" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L812" s="8" t="s">
-        <v>2128</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="813" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42755,13 +42644,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J813" s="4" t="s">
-        <v>2129</v>
+        <v>2094</v>
       </c>
       <c r="K813" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L813" s="8" t="s">
-        <v>2130</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="814" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42797,13 +42686,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J814" s="4" t="s">
-        <v>2131</v>
+        <v>2096</v>
       </c>
       <c r="K814" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L814" s="8" t="s">
-        <v>2132</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="815" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42839,13 +42728,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J815" s="4" t="s">
-        <v>2133</v>
+        <v>2098</v>
       </c>
       <c r="K815" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L815" s="8" t="s">
-        <v>2134</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="816" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42881,13 +42770,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J816" s="4" t="s">
-        <v>2135</v>
+        <v>2100</v>
       </c>
       <c r="K816" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L816" s="8" t="s">
-        <v>2136</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="817" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42923,13 +42812,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J817" s="4" t="s">
-        <v>2137</v>
+        <v>2102</v>
       </c>
       <c r="K817" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L817" s="8" t="s">
-        <v>2138</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="818" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -42965,13 +42854,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J818" s="4" t="s">
-        <v>2139</v>
+        <v>2104</v>
       </c>
       <c r="K818" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L818" s="8" t="s">
-        <v>2140</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="819" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43007,13 +42896,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J819" s="4" t="s">
-        <v>2141</v>
+        <v>2106</v>
       </c>
       <c r="K819" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L819" s="8" t="s">
-        <v>2142</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="820" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43049,13 +42938,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J820" s="4" t="s">
-        <v>2143</v>
+        <v>2108</v>
       </c>
       <c r="K820" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L820" s="8" t="s">
-        <v>2144</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="821" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43091,13 +42980,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J821" s="4" t="s">
-        <v>2145</v>
+        <v>2110</v>
       </c>
       <c r="K821" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L821" s="8" t="s">
-        <v>2146</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="822" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43133,13 +43022,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J822" s="4" t="s">
-        <v>2147</v>
+        <v>2112</v>
       </c>
       <c r="K822" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L822" s="8" t="s">
-        <v>2148</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="823" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43175,13 +43064,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J823" s="4" t="s">
-        <v>2149</v>
+        <v>2114</v>
       </c>
       <c r="K823" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L823" s="8" t="s">
-        <v>2150</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="824" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43217,13 +43106,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J824" s="4" t="s">
-        <v>2151</v>
+        <v>2116</v>
       </c>
       <c r="K824" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L824" s="8" t="s">
-        <v>2152</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="825" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43259,13 +43148,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J825" s="4" t="s">
-        <v>2153</v>
+        <v>2118</v>
       </c>
       <c r="K825" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L825" s="8" t="s">
-        <v>2154</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="826" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43301,13 +43190,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J826" s="4" t="s">
-        <v>2155</v>
+        <v>2120</v>
       </c>
       <c r="K826" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L826" s="8" t="s">
-        <v>2156</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="827" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43343,13 +43232,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J827" s="4" t="s">
-        <v>2157</v>
+        <v>2122</v>
       </c>
       <c r="K827" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L827" s="8" t="s">
-        <v>2158</v>
+        <v>2123</v>
       </c>
     </row>
     <row r="828" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43385,13 +43274,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J828" s="4" t="s">
-        <v>2159</v>
+        <v>2124</v>
       </c>
       <c r="K828" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L828" s="8" t="s">
-        <v>2160</v>
+        <v>2125</v>
       </c>
     </row>
     <row r="829" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43427,13 +43316,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J829" s="4" t="s">
-        <v>2161</v>
+        <v>2126</v>
       </c>
       <c r="K829" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L829" s="8" t="s">
-        <v>2162</v>
+        <v>2127</v>
       </c>
     </row>
     <row r="830" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43469,13 +43358,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J830" s="4" t="s">
-        <v>2163</v>
+        <v>2128</v>
       </c>
       <c r="K830" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L830" s="8" t="s">
-        <v>2164</v>
+        <v>2129</v>
       </c>
     </row>
     <row r="831" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43511,13 +43400,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J831" s="4" t="s">
-        <v>2165</v>
+        <v>2130</v>
       </c>
       <c r="K831" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L831" s="8" t="s">
-        <v>2166</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="832" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43553,13 +43442,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J832" s="4" t="s">
-        <v>2167</v>
+        <v>2132</v>
       </c>
       <c r="K832" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L832" s="8" t="s">
-        <v>2168</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="833" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43595,13 +43484,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J833" s="4" t="s">
-        <v>2169</v>
+        <v>2134</v>
       </c>
       <c r="K833" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L833" s="8" t="s">
-        <v>2170</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="834" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43637,13 +43526,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J834" s="4" t="s">
-        <v>2171</v>
+        <v>2136</v>
       </c>
       <c r="K834" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L834" s="8" t="s">
-        <v>2172</v>
+        <v>2137</v>
       </c>
     </row>
     <row r="835" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43679,13 +43568,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J835" s="4" t="s">
-        <v>2173</v>
+        <v>2138</v>
       </c>
       <c r="K835" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L835" s="8" t="s">
-        <v>2174</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="836" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43721,13 +43610,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J836" s="4" t="s">
-        <v>2175</v>
+        <v>2140</v>
       </c>
       <c r="K836" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L836" s="8" t="s">
-        <v>2176</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="837" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43763,13 +43652,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J837" s="4" t="s">
-        <v>2177</v>
+        <v>2142</v>
       </c>
       <c r="K837" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L837" s="8" t="s">
-        <v>2178</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="838" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43805,13 +43694,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J838" s="4" t="s">
-        <v>2179</v>
+        <v>2144</v>
       </c>
       <c r="K838" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L838" s="8" t="s">
-        <v>2180</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="839" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43847,13 +43736,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J839" s="4" t="s">
-        <v>2181</v>
+        <v>2146</v>
       </c>
       <c r="K839" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L839" s="8" t="s">
-        <v>2182</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="840" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43889,13 +43778,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J840" s="4" t="s">
-        <v>2183</v>
+        <v>2148</v>
       </c>
       <c r="K840" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L840" s="8" t="s">
-        <v>2184</v>
+        <v>2149</v>
       </c>
     </row>
     <row r="841" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43931,13 +43820,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J841" s="4" t="s">
-        <v>2185</v>
+        <v>2150</v>
       </c>
       <c r="K841" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L841" s="8" t="s">
-        <v>2186</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="842" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -43973,13 +43862,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J842" s="4" t="s">
-        <v>2187</v>
+        <v>2152</v>
       </c>
       <c r="K842" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L842" s="8" t="s">
-        <v>2188</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="843" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44015,13 +43904,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J843" s="4" t="s">
-        <v>2189</v>
+        <v>2154</v>
       </c>
       <c r="K843" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L843" s="8" t="s">
-        <v>2190</v>
+        <v>2155</v>
       </c>
     </row>
     <row r="844" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44057,13 +43946,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J844" s="4" t="s">
-        <v>2191</v>
+        <v>2156</v>
       </c>
       <c r="K844" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L844" s="8" t="s">
-        <v>2192</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="845" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44099,13 +43988,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J845" s="4" t="s">
-        <v>2193</v>
+        <v>2158</v>
       </c>
       <c r="K845" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L845" s="8" t="s">
-        <v>2194</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="846" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44141,13 +44030,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J846" s="4" t="s">
-        <v>2195</v>
+        <v>2160</v>
       </c>
       <c r="K846" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L846" s="8" t="s">
-        <v>2196</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="847" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44183,13 +44072,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J847" s="4" t="s">
-        <v>2197</v>
+        <v>2162</v>
       </c>
       <c r="K847" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L847" s="8" t="s">
-        <v>2198</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="848" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44225,13 +44114,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J848" s="4" t="s">
-        <v>2199</v>
+        <v>2164</v>
       </c>
       <c r="K848" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L848" s="8" t="s">
-        <v>2200</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="849" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44267,13 +44156,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J849" s="4" t="s">
-        <v>2201</v>
+        <v>2166</v>
       </c>
       <c r="K849" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L849" s="8" t="s">
-        <v>2202</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="850" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44309,13 +44198,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J850" s="4" t="s">
-        <v>2203</v>
+        <v>2168</v>
       </c>
       <c r="K850" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L850" s="8" t="s">
-        <v>2204</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="851" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44351,13 +44240,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J851" s="4" t="s">
-        <v>2205</v>
+        <v>2170</v>
       </c>
       <c r="K851" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L851" s="8" t="s">
-        <v>2206</v>
+        <v>2171</v>
       </c>
     </row>
     <row r="852" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44393,13 +44282,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J852" s="4" t="s">
-        <v>2207</v>
+        <v>2172</v>
       </c>
       <c r="K852" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L852" s="8" t="s">
-        <v>2208</v>
+        <v>2173</v>
       </c>
     </row>
     <row r="853" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44435,13 +44324,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J853" s="4" t="s">
-        <v>2209</v>
+        <v>2174</v>
       </c>
       <c r="K853" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L853" s="8" t="s">
-        <v>2210</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="854" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44477,13 +44366,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J854" s="4" t="s">
-        <v>2211</v>
+        <v>2176</v>
       </c>
       <c r="K854" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L854" s="8" t="s">
-        <v>2212</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="855" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44519,13 +44408,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J855" s="4" t="s">
-        <v>2213</v>
+        <v>2178</v>
       </c>
       <c r="K855" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L855" s="8" t="s">
-        <v>2214</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="856" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44561,13 +44450,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J856" s="4" t="s">
-        <v>2215</v>
+        <v>2180</v>
       </c>
       <c r="K856" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L856" s="8" t="s">
-        <v>2216</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="857" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44603,13 +44492,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J857" s="4" t="s">
-        <v>2217</v>
+        <v>2182</v>
       </c>
       <c r="K857" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L857" s="8" t="s">
-        <v>2218</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="858" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44645,13 +44534,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J858" s="4" t="s">
-        <v>2219</v>
+        <v>2184</v>
       </c>
       <c r="K858" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L858" s="8" t="s">
-        <v>2220</v>
+        <v>2185</v>
       </c>
     </row>
     <row r="859" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44687,13 +44576,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J859" s="4" t="s">
-        <v>2221</v>
+        <v>2186</v>
       </c>
       <c r="K859" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L859" s="8" t="s">
-        <v>2222</v>
+        <v>2187</v>
       </c>
     </row>
     <row r="860" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44729,13 +44618,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J860" s="4" t="s">
-        <v>2223</v>
+        <v>2188</v>
       </c>
       <c r="K860" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L860" s="8" t="s">
-        <v>2224</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="861" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44771,13 +44660,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J861" s="4" t="s">
-        <v>2225</v>
+        <v>2190</v>
       </c>
       <c r="K861" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L861" s="8" t="s">
-        <v>2226</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="862" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44813,13 +44702,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J862" s="4" t="s">
-        <v>2227</v>
+        <v>2192</v>
       </c>
       <c r="K862" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L862" s="8" t="s">
-        <v>2228</v>
+        <v>2193</v>
       </c>
     </row>
     <row r="863" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44855,13 +44744,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J863" s="4" t="s">
-        <v>2229</v>
+        <v>2194</v>
       </c>
       <c r="K863" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L863" s="8" t="s">
-        <v>2230</v>
+        <v>2195</v>
       </c>
     </row>
     <row r="864" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44897,13 +44786,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J864" s="4" t="s">
-        <v>2231</v>
+        <v>2196</v>
       </c>
       <c r="K864" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L864" s="8" t="s">
-        <v>2232</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="865" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44939,13 +44828,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J865" s="4" t="s">
-        <v>2233</v>
+        <v>2198</v>
       </c>
       <c r="K865" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L865" s="8" t="s">
-        <v>2234</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="866" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -44981,13 +44870,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J866" s="4" t="s">
-        <v>2235</v>
+        <v>2200</v>
       </c>
       <c r="K866" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L866" s="8" t="s">
-        <v>2236</v>
+        <v>2201</v>
       </c>
     </row>
     <row r="867" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45023,13 +44912,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J867" s="4" t="s">
-        <v>2237</v>
+        <v>2202</v>
       </c>
       <c r="K867" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L867" s="8" t="s">
-        <v>2238</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="868" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45065,13 +44954,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J868" s="4" t="s">
-        <v>2239</v>
+        <v>2204</v>
       </c>
       <c r="K868" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L868" s="8" t="s">
-        <v>2240</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="869" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45107,13 +44996,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J869" s="4" t="s">
-        <v>2241</v>
+        <v>2206</v>
       </c>
       <c r="K869" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L869" s="8" t="s">
-        <v>2242</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="870" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45149,13 +45038,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J870" s="4" t="s">
-        <v>2243</v>
+        <v>2208</v>
       </c>
       <c r="K870" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L870" s="8" t="s">
-        <v>2244</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="871" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45191,13 +45080,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J871" s="4" t="s">
-        <v>2245</v>
+        <v>2210</v>
       </c>
       <c r="K871" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L871" s="8" t="s">
-        <v>2246</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="872" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45233,13 +45122,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J872" s="4" t="s">
-        <v>2247</v>
+        <v>2212</v>
       </c>
       <c r="K872" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L872" s="8" t="s">
-        <v>2248</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="873" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45275,13 +45164,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J873" s="4" t="s">
-        <v>2249</v>
+        <v>2214</v>
       </c>
       <c r="K873" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L873" s="8" t="s">
-        <v>2250</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="874" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45317,13 +45206,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J874" s="4" t="s">
-        <v>2251</v>
+        <v>2216</v>
       </c>
       <c r="K874" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L874" s="8" t="s">
-        <v>2252</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="875" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45359,13 +45248,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J875" s="4" t="s">
-        <v>2253</v>
+        <v>2218</v>
       </c>
       <c r="K875" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L875" s="8" t="s">
-        <v>2254</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="876" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45401,13 +45290,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J876" s="4" t="s">
-        <v>2255</v>
+        <v>2220</v>
       </c>
       <c r="K876" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L876" s="8" t="s">
-        <v>2256</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="877" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45443,13 +45332,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J877" s="4" t="s">
-        <v>2257</v>
+        <v>2222</v>
       </c>
       <c r="K877" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L877" s="8" t="s">
-        <v>2258</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="878" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45485,13 +45374,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J878" s="4" t="s">
-        <v>2259</v>
+        <v>2224</v>
       </c>
       <c r="K878" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L878" s="8" t="s">
-        <v>2260</v>
+        <v>2225</v>
       </c>
     </row>
     <row r="879" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45527,13 +45416,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J879" s="4" t="s">
-        <v>2261</v>
+        <v>2226</v>
       </c>
       <c r="K879" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L879" s="8" t="s">
-        <v>2262</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="880" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45569,13 +45458,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J880" s="4" t="s">
-        <v>2263</v>
+        <v>2228</v>
       </c>
       <c r="K880" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L880" s="8" t="s">
-        <v>2264</v>
+        <v>2229</v>
       </c>
     </row>
     <row r="881" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45611,13 +45500,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J881" s="4" t="s">
-        <v>2265</v>
+        <v>2230</v>
       </c>
       <c r="K881" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L881" s="8" t="s">
-        <v>2266</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="882" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45653,13 +45542,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J882" s="4" t="s">
-        <v>2267</v>
+        <v>2232</v>
       </c>
       <c r="K882" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L882" s="8" t="s">
-        <v>2268</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="883" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45695,13 +45584,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J883" s="4" t="s">
-        <v>2269</v>
+        <v>2234</v>
       </c>
       <c r="K883" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L883" s="8" t="s">
-        <v>2270</v>
+        <v>2235</v>
       </c>
     </row>
     <row r="884" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45737,13 +45626,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J884" s="4" t="s">
-        <v>2271</v>
+        <v>2236</v>
       </c>
       <c r="K884" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L884" s="8" t="s">
-        <v>2272</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="885" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45779,13 +45668,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J885" s="4" t="s">
-        <v>2273</v>
+        <v>2238</v>
       </c>
       <c r="K885" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L885" s="8" t="s">
-        <v>2274</v>
+        <v>2239</v>
       </c>
     </row>
     <row r="886" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45821,13 +45710,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J886" s="4" t="s">
-        <v>2275</v>
+        <v>2240</v>
       </c>
       <c r="K886" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L886" s="8" t="s">
-        <v>2276</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="887" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45863,13 +45752,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J887" s="4" t="s">
-        <v>2277</v>
+        <v>2242</v>
       </c>
       <c r="K887" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L887" s="8" t="s">
-        <v>2278</v>
+        <v>2243</v>
       </c>
     </row>
     <row r="888" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45905,13 +45794,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J888" s="4" t="s">
-        <v>2279</v>
+        <v>2244</v>
       </c>
       <c r="K888" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L888" s="8" t="s">
-        <v>2280</v>
+        <v>2245</v>
       </c>
     </row>
     <row r="889" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45947,13 +45836,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J889" s="4" t="s">
-        <v>2281</v>
+        <v>2246</v>
       </c>
       <c r="K889" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L889" s="8" t="s">
-        <v>2282</v>
+        <v>2247</v>
       </c>
     </row>
     <row r="890" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -45989,13 +45878,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J890" s="4" t="s">
-        <v>2283</v>
+        <v>2248</v>
       </c>
       <c r="K890" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L890" s="8" t="s">
-        <v>2284</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="891" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46031,13 +45920,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J891" s="4" t="s">
-        <v>2285</v>
+        <v>2250</v>
       </c>
       <c r="K891" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L891" s="8" t="s">
-        <v>2286</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="892" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46073,13 +45962,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J892" s="4" t="s">
-        <v>2287</v>
+        <v>2252</v>
       </c>
       <c r="K892" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L892" s="8" t="s">
-        <v>2288</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="893" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46115,13 +46004,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J893" s="4" t="s">
-        <v>2289</v>
+        <v>2254</v>
       </c>
       <c r="K893" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L893" s="8" t="s">
-        <v>2290</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="894" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46157,13 +46046,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J894" s="4" t="s">
-        <v>2291</v>
+        <v>2256</v>
       </c>
       <c r="K894" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L894" s="8" t="s">
-        <v>2292</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="895" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46199,13 +46088,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J895" s="4" t="s">
-        <v>2293</v>
+        <v>2258</v>
       </c>
       <c r="K895" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L895" s="8" t="s">
-        <v>2294</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="896" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46241,13 +46130,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J896" s="4" t="s">
-        <v>2295</v>
+        <v>2260</v>
       </c>
       <c r="K896" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L896" s="8" t="s">
-        <v>2296</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="897" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46283,13 +46172,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J897" s="4" t="s">
-        <v>2297</v>
+        <v>2262</v>
       </c>
       <c r="K897" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L897" s="8" t="s">
-        <v>2298</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="898" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46325,13 +46214,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J898" s="4" t="s">
-        <v>2299</v>
+        <v>2264</v>
       </c>
       <c r="K898" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L898" s="8" t="s">
-        <v>2300</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="899" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46367,13 +46256,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J899" s="4" t="s">
-        <v>2301</v>
+        <v>2266</v>
       </c>
       <c r="K899" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L899" s="8" t="s">
-        <v>2302</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="900" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46409,13 +46298,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J900" s="4" t="s">
-        <v>2303</v>
+        <v>2268</v>
       </c>
       <c r="K900" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L900" s="8" t="s">
-        <v>2304</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="901" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46451,13 +46340,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J901" s="4" t="s">
-        <v>2305</v>
+        <v>2270</v>
       </c>
       <c r="K901" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L901" s="8" t="s">
-        <v>2306</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="902" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46493,13 +46382,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J902" s="4" t="s">
-        <v>2307</v>
+        <v>2272</v>
       </c>
       <c r="K902" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L902" s="8" t="s">
-        <v>2308</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="903" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46535,13 +46424,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J903" s="4" t="s">
-        <v>2309</v>
+        <v>2274</v>
       </c>
       <c r="K903" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L903" s="8" t="s">
-        <v>2310</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="904" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46577,13 +46466,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J904" s="4" t="s">
-        <v>2311</v>
+        <v>2276</v>
       </c>
       <c r="K904" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L904" s="8" t="s">
-        <v>2312</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="905" spans="1:12" ht="15" x14ac:dyDescent="0.2">
@@ -46619,13 +46508,13 @@
         <v>Множество персоналистических Миров и осознанность Восприятия</v>
       </c>
       <c r="J905" s="4" t="s">
-        <v>2313</v>
+        <v>2278</v>
       </c>
       <c r="K905" s="4" t="s">
         <v>1414</v>
       </c>
       <c r="L905" s="8" t="s">
-        <v>2314</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="906" spans="1:12" x14ac:dyDescent="0.2">
